--- a/Week 4/fun with fd.xlsx
+++ b/Week 4/fun with fd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10882" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10882" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="duality" sheetId="1" r:id="rId1"/>
@@ -3586,6 +3586,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3940,6 +3941,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4325,6 +4327,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6163,7 +6166,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22393,8 +22395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q168"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -24973,7 +24975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/Week 4/fun with fd.xlsx
+++ b/Week 4/fun with fd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10882" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10882" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="duality" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="accuracy" sheetId="11" r:id="rId10"/>
     <sheet name="accuracy (2)" sheetId="12" r:id="rId11"/>
     <sheet name="black" sheetId="13" r:id="rId12"/>
+    <sheet name="ade" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="85">
   <si>
     <t>num t</t>
   </si>
@@ -285,6 +286,12 @@
   <si>
     <t>black</t>
   </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>fd/ade</t>
+  </si>
 </sst>
 </file>
 
@@ -473,157 +480,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>6.8278642696385385E-6</c:v>
+                  <c:v>6.0597923975600377E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.764632510607723E-6</c:v>
+                  <c:v>3.939115137314023E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4334878670141555E-6</c:v>
+                  <c:v>9.2999841961763067E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7421498965536055E-6</c:v>
+                  <c:v>1.9732288355349967E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6865892696768193E-5</c:v>
+                  <c:v>4.0551380129894486E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8725412418652726E-5</c:v>
+                  <c:v>8.211467678173147E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.845431333358022E-5</c:v>
+                  <c:v>1.6446084319790392E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1134728794191472E-5</c:v>
+                  <c:v>3.258423099075163E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3493974540007092E-4</c:v>
+                  <c:v>6.3803780636103718E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2287882650144075E-4</c:v>
+                  <c:v>1.2329762489977312E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.654116499798667E-4</c:v>
+                  <c:v>2.347164636440148E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9426657570443874E-4</c:v>
+                  <c:v>4.3918244633732217E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.5784588985862703E-4</c:v>
+                  <c:v>8.0550793924724943E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.528564744304742E-3</c:v>
+                  <c:v>1.4432674409192749E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4122482522151308E-3</c:v>
+                  <c:v>2.5156101182603873E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.759120658239177E-3</c:v>
+                  <c:v>4.2429884454814838E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.7746848559054858E-3</c:v>
+                  <c:v>6.8802521055328671E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7265450396924269E-3</c:v>
+                  <c:v>1.0643401350751433E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.293961771909451E-2</c:v>
+                  <c:v>1.5580848747124237E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8767185357940253E-2</c:v>
+                  <c:v>2.1482615405503315E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.6519940562766093E-2</c:v>
+                  <c:v>2.8176927295075073E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.6333210661360554E-2</c:v>
+                  <c:v>3.684920656961474E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7962648848870859E-2</c:v>
+                  <c:v>5.175591246619704E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0537204243442638E-2</c:v>
+                  <c:v>7.0627756459272259E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.2387579821939052E-2</c:v>
+                  <c:v>-3.3102333907566173E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.1215564265698481E-2</c:v>
+                  <c:v>0.1773949016587483</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.4976724031185003E-2</c:v>
+                  <c:v>-3.8859261544403473E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.3424615791519052E-2</c:v>
+                  <c:v>9.7330121850097664E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7590927175145291E-2</c:v>
+                  <c:v>8.3727428706039289E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.899974462430325E-2</c:v>
+                  <c:v>6.9979664124498742E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.912241616113513E-2</c:v>
+                  <c:v>6.2816433071928662E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.9115060576615313E-2</c:v>
+                  <c:v>5.6221538039444033E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.9753271992440574E-2</c:v>
+                  <c:v>4.7867705289014566E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.1472382236748947E-2</c:v>
+                  <c:v>3.8385558517191457E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.4448448989353763E-2</c:v>
+                  <c:v>2.9129142782493119E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.8682920958290668E-2</c:v>
+                  <c:v>2.1087792905498694E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4073929808035377E-2</c:v>
+                  <c:v>1.467704190493371E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0469129832398385E-2</c:v>
+                  <c:v>9.8850284873259284E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.7010876404705192E-3</c:v>
+                  <c:v>6.4764467845450863E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.6086494448224257E-3</c:v>
+                  <c:v>4.1452207261635059E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.0481565909307564E-3</c:v>
+                  <c:v>2.6006470166122322E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.8979112782044326E-3</c:v>
+                  <c:v>1.6037098693364093E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.0585221240517109E-3</c:v>
+                  <c:v>9.7419022038207044E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4509874063594148E-3</c:v>
+                  <c:v>5.8399043191101829E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0137268959733256E-3</c:v>
+                  <c:v>3.4591449387299822E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.992794089055942E-4</c:v>
+                  <c:v>2.0253126783069115E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.7102505635140973E-4</c:v>
+                  <c:v>1.169401188772207E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.0003271190509107E-4</c:v>
+                  <c:v>6.5787805870894293E-5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.6193266408592478E-4</c:v>
+                  <c:v>3.4227232339419984E-5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.3527660624876458E-5</c:v>
+                  <c:v>1.2265189698951722E-5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.4035466751420427E-4</c:v>
+                  <c:v>4.6833431498368615E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3595,7 +3602,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3950,7 +3956,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4336,7 +4341,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6175,7 +6179,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6287,7 +6290,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7009,7 +7011,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7395,7 +7396,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8415,7 +8415,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8820,7 +8819,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8852,6 +8850,373 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ade!$L$22:$L$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>6.4107519555457315E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8190054797883341E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8046775350601484E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3566000574061501E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5742124333696047E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.791717426616474E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8117594290314927E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6026073477897176E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8806456680216254E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1105319780145883E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9328280103457972E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5350088452840212E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5862345162289157E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2581684456865325E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8232414591456268E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0586484365381173E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5804255048325597E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.253352170659292E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0448373639822626E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8815619160710746E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7102960832646805E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.6776248596095896E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2758612676078874E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0652077882168253E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4283055774956698E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.18569369723896881</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4283055774956698E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0652077882168225E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2758612676078901E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.6776248596095868E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.7102960832646798E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8815619160710739E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0448373639822609E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2533521706592934E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5804255048325604E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0586484365381179E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.8232414591456337E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.258168445686536E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.586234516228917E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5350088452840214E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.9328280103458016E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.1105319780145905E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.880645668021627E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6026073477897178E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.8117594290314981E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7917174266164767E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.5742124333696068E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.3566000574061508E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.8046775350601493E-6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.8190054797883349E-6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.4107519555457348E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C049-494F-8E64-CF74459188E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="434228480"/>
+        <c:axId val="434222576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="434228480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434222576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="434222576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434228480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -12379,6 +12744,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -20896,6 +21301,522 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -24909,6 +25830,43 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>159587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>34505</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4312</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25568,7 +26526,7 @@
   <dimension ref="B2:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -25676,6 +26634,7 @@
         <v>0</v>
       </c>
       <c r="L15">
+        <f ca="1">C15</f>
         <v>4</v>
       </c>
     </row>
@@ -25684,13 +26643,14 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K16" t="s">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <f ca="1">C16</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -25748,7 +26708,7 @@
       </c>
       <c r="L20" s="2">
         <f ca="1">SUMPRODUCT(L22:L72,F22:F72)</f>
-        <v>6.30596235552357E-2</v>
+        <v>6.3995137689120171E-2</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -25797,11 +26757,11 @@
       </c>
       <c r="H22">
         <f t="array" aca="1" ref="H22:H72" ca="1">_xll.xFd1d(C2,B22:B72,C22:C72,D22:D72,E22:E72,F22:F72,C15:C19)</f>
-        <v>7.7968614476576748E-6</v>
+        <v>3.30092225387983E-7</v>
       </c>
       <c r="I22">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H22/$F$17,B22+$C$5*$C$2)</f>
-        <v>0.13064203848889755</v>
+        <v>0.10877458433900049</v>
       </c>
       <c r="K22">
         <f ca="1">IF(ABS(B22-$C$3)&lt;0.0000000001,1,0)</f>
@@ -25809,11 +26769,11 @@
       </c>
       <c r="L22">
         <f t="array" aca="1" ref="L22:L72" ca="1">_xll.xFd1d($C$2,B22:B72,C22:C72,D22:D72,E22:E72,K22:K72,L15:L19)</f>
-        <v>6.8278642696385385E-6</v>
+        <v>6.0597923975600377E-7</v>
       </c>
       <c r="N22">
         <f ca="1">SUM(L22:L72)</f>
-        <v>0.97055417192807114</v>
+        <v>0.97044539707846289</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
@@ -25839,11 +26799,11 @@
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>1.8781537138238204E-5</v>
+        <v>1.2761080847893596E-6</v>
       </c>
       <c r="I23">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H23/$F$17,B23+$C$5*$C$2)</f>
-        <v>0.13323396926949316</v>
+        <v>0.11192650376543981</v>
       </c>
       <c r="K23">
         <f t="shared" ref="K23:K72" ca="1" si="5">IF(ABS(B23-$C$3)&lt;0.0000000001,1,0)</f>
@@ -25851,7 +26811,7 @@
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>2.764632510607723E-6</v>
+        <v>3.939115137314023E-7</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -25877,11 +26837,11 @@
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>3.1937641530069047E-5</v>
+        <v>2.6053470619551129E-6</v>
       </c>
       <c r="I24">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H24/$F$17,B24+$C$5*$C$2)</f>
-        <v>0.1329644290274557</v>
+        <v>0.11162029566372075</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="5"/>
@@ -25889,7 +26849,7 @@
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>5.4334878670141555E-6</v>
+        <v>9.2999841961763067E-7</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -25915,11 +26875,11 @@
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>4.9512497987880475E-5</v>
+        <v>4.7898743905749856E-6</v>
       </c>
       <c r="I25">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H25/$F$17,B25+$C$5*$C$2)</f>
-        <v>0.13182452616689638</v>
+        <v>0.11071531385213737</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="5"/>
@@ -25927,7 +26887,7 @@
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>9.7421498965536055E-6</v>
+        <v>1.9732288355349967E-6</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -25953,11 +26913,11 @@
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>7.4221418126378091E-5</v>
+        <v>8.5518582630297733E-6</v>
       </c>
       <c r="I26">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H26/$F$17,B26+$C$5*$C$2)</f>
-        <v>0.13035580010299833</v>
+        <v>0.10966874248683266</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="5"/>
@@ -25965,7 +26925,7 @@
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>1.6865892696768193E-5</v>
+        <v>4.0551380129894486E-6</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -25991,11 +26951,11 @@
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>1.0965012062342402E-4</v>
+        <v>1.5083317743479532E-5</v>
       </c>
       <c r="I27">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H27/$F$17,B27+$C$5*$C$2)</f>
-        <v>0.12874757733057351</v>
+        <v>0.10859658054751856</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="5"/>
@@ -26003,7 +26963,7 @@
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>2.8725412418652726E-5</v>
+        <v>8.211467678173147E-6</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -26029,11 +26989,11 @@
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>1.6072612524647262E-4</v>
+        <v>2.6383558769072937E-5</v>
       </c>
       <c r="I28">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H28/$F$17,B28+$C$5*$C$2)</f>
-        <v>0.12707214039236739</v>
+        <v>0.10753386276485034</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="5"/>
@@ -26041,7 +27001,7 @@
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>4.845431333358022E-5</v>
+        <v>1.6446084319790392E-5</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -26067,11 +27027,11 @@
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>2.3431353745702655E-4</v>
+        <v>4.5793033787554731E-5</v>
       </c>
       <c r="I29">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H29/$F$17,B29+$C$5*$C$2)</f>
-        <v>0.1253581851271339</v>
+        <v>0.10649482840875306</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="5"/>
@@ -26079,7 +27039,7 @@
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>8.1134728794191472E-5</v>
+        <v>3.258423099075163E-5</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -26105,11 +27065,11 @@
       </c>
       <c r="H30">
         <f ca="1"/>
-        <v>3.3998689494425788E-4</v>
+        <v>7.8833572676364631E-5</v>
       </c>
       <c r="I30">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H30/$F$17,B30+$C$5*$C$2)</f>
-        <v>0.12361746612146393</v>
+        <v>0.10548895709883509</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="5"/>
@@ -26117,7 +27077,7 @@
       </c>
       <c r="L30">
         <f ca="1"/>
-        <v>1.3493974540007092E-4</v>
+        <v>6.3803780636103718E-5</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -26143,11 +27103,11 @@
       </c>
       <c r="H31">
         <f ca="1"/>
-        <v>4.9104370106216842E-4</v>
+        <v>1.3450563033059896E-4</v>
       </c>
       <c r="I31">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H31/$F$17,B31+$C$5*$C$2)</f>
-        <v>0.12185514250100928</v>
+        <v>0.10452553790048534</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="5"/>
@@ -26155,7 +27115,7 @@
       </c>
       <c r="L31">
         <f ca="1"/>
-        <v>2.2287882650144075E-4</v>
+        <v>1.2329762489977312E-4</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -26181,11 +27141,11 @@
       </c>
       <c r="H32">
         <f ca="1"/>
-        <v>7.0581898668354822E-4</v>
+        <v>2.272366236024414E-4</v>
       </c>
       <c r="I32">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H32/$F$17,B32+$C$5*$C$2)</f>
-        <v>0.12007394348923066</v>
+        <v>0.10361511789024858</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="5"/>
@@ -26193,7 +27153,7 @@
       </c>
       <c r="L32">
         <f ca="1"/>
-        <v>3.654116499798667E-4</v>
+        <v>2.347164636440148E-4</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -26219,11 +27179,11 @@
       </c>
       <c r="H33">
         <f ca="1"/>
-        <v>1.0093649342806247E-3</v>
+        <v>3.7970344943982358E-4</v>
       </c>
       <c r="I33">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H33/$F$17,B33+$C$5*$C$2)</f>
-        <v>0.11827591928092461</v>
+        <v>0.10277005525161094</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="5"/>
@@ -26231,7 +27191,7 @@
       </c>
       <c r="L33">
         <f ca="1"/>
-        <v>5.9426657570443874E-4</v>
+        <v>4.3918244633732217E-4</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -26257,11 +27217,11 @@
       </c>
       <c r="H34">
         <f ca="1"/>
-        <v>1.4355489001296171E-3</v>
+        <v>6.2673083075927651E-4</v>
       </c>
       <c r="I34">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H34/$F$17,B34+$C$5*$C$2)</f>
-        <v>0.11646325278556202</v>
+        <v>0.10200471534560199</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="5"/>
@@ -26269,7 +27229,7 @@
       </c>
       <c r="L34">
         <f ca="1"/>
-        <v>9.5784588985862703E-4</v>
+        <v>8.0550793924724943E-4</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -26295,11 +27255,11 @@
       </c>
       <c r="H35">
         <f ca="1"/>
-        <v>2.0295964176918332E-3</v>
+        <v>1.0203300610789085E-3</v>
       </c>
       <c r="I35">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H35/$F$17,B35+$C$5*$C$2)</f>
-        <v>0.1146387293361413</v>
+        <v>0.10133531108002454</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="5"/>
@@ -26307,7 +27267,7 @@
       </c>
       <c r="L35">
         <f ca="1"/>
-        <v>1.528564744304742E-3</v>
+        <v>1.4432674409192749E-3</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -26333,11 +27293,11 @@
       </c>
       <c r="H36">
         <f ca="1"/>
-        <v>2.851051418892902E-3</v>
+        <v>1.6355899303852734E-3</v>
       </c>
       <c r="I36">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H36/$F$17,B36+$C$5*$C$2)</f>
-        <v>0.11280611779224124</v>
+        <v>0.10077911072159595</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="5"/>
@@ -26345,7 +27305,7 @@
       </c>
       <c r="L36">
         <f ca="1"/>
-        <v>2.4122482522151308E-3</v>
+        <v>2.5156101182603873E-3</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -26371,11 +27331,11 @@
       </c>
       <c r="H37">
         <f ca="1"/>
-        <v>3.9770304669162013E-3</v>
+        <v>2.5764443937575025E-3</v>
       </c>
       <c r="I37">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H37/$F$17,B37+$C$5*$C$2)</f>
-        <v>0.11097058377203893</v>
+        <v>0.10035245085736177</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="5"/>
@@ -26383,7 +27343,7 @@
       </c>
       <c r="L37">
         <f ca="1"/>
-        <v>3.759120658239177E-3</v>
+        <v>4.2429884454814838E-3</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -26409,11 +27369,11 @@
       </c>
       <c r="H38">
         <f ca="1"/>
-        <v>5.5054958500013124E-3</v>
+        <v>3.9792614650561459E-3</v>
       </c>
       <c r="I38">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H38/$F$17,B38+$C$5*$C$2)</f>
-        <v>0.10913920820229626</v>
+        <v>0.10006663809902615</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="5"/>
@@ -26421,7 +27381,7 @@
       </c>
       <c r="L38">
         <f ca="1"/>
-        <v>5.7746848559054858E-3</v>
+        <v>6.8802521055328671E-3</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -26447,11 +27407,11 @@
       </c>
       <c r="H39">
         <f ca="1"/>
-        <v>7.5580500325437231E-3</v>
+        <v>6.0109434708709103E-3</v>
       </c>
       <c r="I39">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H39/$F$17,B39+$C$5*$C$2)</f>
-        <v>0.10732167114617606</v>
+        <v>9.9920563202920809E-2</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="5"/>
@@ -26459,7 +27419,7 @@
       </c>
       <c r="L39">
         <f ca="1"/>
-        <v>8.7265450396924269E-3</v>
+        <v>1.0643401350751433E-2</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -26485,11 +27445,11 @@
       </c>
       <c r="H40">
         <f ca="1"/>
-        <v>1.0281456393867973E-2</v>
+        <v>8.8577473809746225E-3</v>
       </c>
       <c r="I40">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H40/$F$17,B40+$C$5*$C$2)</f>
-        <v>0.10553115840714063</v>
+        <v>9.9889467763912415E-2</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="5"/>
@@ -26497,7 +27457,7 @@
       </c>
       <c r="L40">
         <f ca="1"/>
-        <v>1.293961771909451E-2</v>
+        <v>1.5580848747124237E-2</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -26523,11 +27483,11 @@
       </c>
       <c r="H41">
         <f ca="1"/>
-        <v>1.3846737185286012E-2</v>
+        <v>1.2703674560649102E-2</v>
       </c>
       <c r="I41">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H41/$F$17,B41+$C$5*$C$2)</f>
-        <v>0.10378553846788541</v>
+        <v>9.991319868821677E-2</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="5"/>
@@ -26535,7 +27495,7 @@
       </c>
       <c r="L41">
         <f ca="1"/>
-        <v>1.8767185357940253E-2</v>
+        <v>2.1482615405503315E-2</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -26561,11 +27521,11 @@
       </c>
       <c r="H42">
         <f ca="1"/>
-        <v>1.8444355992382758E-2</v>
+        <v>1.7707006976291937E-2</v>
       </c>
       <c r="I42">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H42/$F$17,B42+$C$5*$C$2)</f>
-        <v>0.10210881098288338</v>
+        <v>9.9899860245833375E-2</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="5"/>
@@ -26573,7 +27533,7 @@
       </c>
       <c r="L42">
         <f ca="1"/>
-        <v>2.6519940562766093E-2</v>
+        <v>2.8176927295075073E-2</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -26599,11 +27559,11 @@
       </c>
       <c r="H43">
         <f ca="1"/>
-        <v>2.4273809779515515E-2</v>
+        <v>2.4002484208643773E-2</v>
       </c>
       <c r="I43">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H43/$F$17,B43+$C$5*$C$2)</f>
-        <v>0.10053268519113132</v>
+        <v>9.978773822993188E-2</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="5"/>
@@ -26611,7 +27571,7 @@
       </c>
       <c r="L43">
         <f ca="1"/>
-        <v>3.6333210661360554E-2</v>
+        <v>3.684920656961474E-2</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -26637,11 +27597,11 @@
       </c>
       <c r="H44">
         <f ca="1"/>
-        <v>3.1526214379866482E-2</v>
+        <v>3.1766293546396644E-2</v>
       </c>
       <c r="I44">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H44/$F$17,B44+$C$5*$C$2)</f>
-        <v>9.9097787000114124E-2</v>
+        <v>9.9725003006930893E-2</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="5"/>
@@ -26649,7 +27609,7 @@
       </c>
       <c r="L44">
         <f ca="1"/>
-        <v>4.7962648848870859E-2</v>
+        <v>5.175591246619704E-2</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -26675,11 +27635,11 @@
       </c>
       <c r="H45">
         <f ca="1"/>
-        <v>4.0359605971143846E-2</v>
+        <v>4.1272664923992078E-2</v>
       </c>
       <c r="I45">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H45/$F$17,B45+$C$5*$C$2)</f>
-        <v>9.7853223744653758E-2</v>
+        <v>0.10021463254583576</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="5"/>
@@ -26687,7 +27647,7 @@
       </c>
       <c r="L45">
         <f ca="1"/>
-        <v>6.0537204243442638E-2</v>
+        <v>7.0627756459272259E-2</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -26713,11 +27673,11 @@
       </c>
       <c r="H46">
         <f ca="1"/>
-        <v>5.0869250421741515E-2</v>
+        <v>5.2219558498567388E-2</v>
       </c>
       <c r="I46">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H46/$F$17,B46+$C$5*$C$2)</f>
-        <v>9.6851936809384809E-2</v>
+        <v>0.10045358341108504</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="5"/>
@@ -26725,7 +27685,7 @@
       </c>
       <c r="L46">
         <f ca="1"/>
-        <v>7.2387579821939052E-2</v>
+        <v>-3.3102333907566173E-3</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -26751,11 +27711,11 @@
       </c>
       <c r="H47" s="1">
         <f ca="1"/>
-        <v>6.3059623555235672E-2</v>
+        <v>6.399513768912013E-2</v>
       </c>
       <c r="I47">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H47/$F$17,B47+$C$5*$C$2)</f>
-        <v>9.6138198775620243E-2</v>
+        <v>9.8826329256285719E-2</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="5"/>
@@ -26763,7 +27723,7 @@
       </c>
       <c r="L47">
         <f ca="1"/>
-        <v>8.1215564265698481E-2</v>
+        <v>0.1773949016587483</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -26789,11 +27749,11 @@
       </c>
       <c r="H48">
         <f ca="1"/>
-        <v>7.6830168052177822E-2</v>
+        <v>7.8415089237600322E-2</v>
       </c>
       <c r="I48">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H48/$F$17,B48+$C$5*$C$2)</f>
-        <v>9.5726640125284201E-2</v>
+        <v>0.10082201363940713</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="5"/>
@@ -26801,7 +27761,7 @@
       </c>
       <c r="L48">
         <f ca="1"/>
-        <v>8.4976724031185003E-2</v>
+        <v>-3.8859261544403473E-3</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -26827,11 +27787,11 @@
       </c>
       <c r="H49">
         <f ca="1"/>
-        <v>9.1989212267469062E-2</v>
+        <v>9.3138526067515437E-2</v>
       </c>
       <c r="I49">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H49/$F$17,B49+$C$5*$C$2)</f>
-        <v>9.5587164667452651E-2</v>
+        <v>9.9920274937474407E-2</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="5"/>
@@ -26839,7 +27799,7 @@
       </c>
       <c r="L49">
         <f ca="1"/>
-        <v>8.3424615791519052E-2</v>
+        <v>9.7330121850097664E-2</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -26865,11 +27825,11 @@
       </c>
       <c r="H50">
         <f ca="1"/>
-        <v>0.10829612778994391</v>
+        <v>0.10918015880665036</v>
       </c>
       <c r="I50">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H50/$F$17,B50+$C$5*$C$2)</f>
-        <v>9.5657137670165857E-2</v>
+        <v>9.9726300691604403E-2</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="5"/>
@@ -26877,7 +27837,7 @@
       </c>
       <c r="L50">
         <f ca="1"/>
-        <v>7.7590927175145291E-2</v>
+        <v>8.3727428706039289E-2</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -26903,11 +27863,11 @@
       </c>
       <c r="H51">
         <f ca="1"/>
-        <v>0.1255041490971365</v>
+        <v>0.12618237626562573</v>
       </c>
       <c r="I51">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H51/$F$17,B51+$C$5*$C$2)</f>
-        <v>9.585329271250756E-2</v>
+        <v>9.9816406184167136E-2</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="5"/>
@@ -26915,7 +27875,7 @@
       </c>
       <c r="L51">
         <f ca="1"/>
-        <v>6.899974462430325E-2</v>
+        <v>6.9979664124498742E-2</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -26941,11 +27901,11 @@
       </c>
       <c r="H52">
         <f ca="1"/>
-        <v>0.14338976826490504</v>
+        <v>0.14387821645961957</v>
       </c>
       <c r="I52">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H52/$F$17,B52+$C$5*$C$2)</f>
-        <v>9.6073039127536911E-2</v>
+        <v>9.984660452001691E-2</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="5"/>
@@ -26953,7 +27913,7 @@
       </c>
       <c r="L52">
         <f ca="1"/>
-        <v>5.912241616113513E-2</v>
+        <v>6.2816433071928662E-2</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -26979,11 +27939,11 @@
       </c>
       <c r="H53">
         <f ca="1"/>
-        <v>0.16176702246451852</v>
+        <v>0.16210412364006496</v>
       </c>
       <c r="I53">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H53/$F$17,B53+$C$5*$C$2)</f>
-        <v>9.6181540664011522E-2</v>
+        <v>9.9776653532340193E-2</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="5"/>
@@ -26991,7 +27951,7 @@
       </c>
       <c r="L53">
         <f ca="1"/>
-        <v>4.9115060576615313E-2</v>
+        <v>5.6221538039444033E-2</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -27017,11 +27977,11 @@
       </c>
       <c r="H54">
         <f ca="1"/>
-        <v>0.18049048252785829</v>
+        <v>0.1807301742953244</v>
       </c>
       <c r="I54">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H54/$F$17,B54+$C$5*$C$2)</f>
-        <v>9.5974473554057457E-2</v>
+        <v>9.9675481518736536E-2</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="5"/>
@@ -27029,7 +27989,7 @@
       </c>
       <c r="L54">
         <f ca="1"/>
-        <v>3.9753271992440574E-2</v>
+        <v>4.7867705289014566E-2</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -27055,11 +28015,11 @@
       </c>
       <c r="H55">
         <f ca="1"/>
-        <v>0.19945166957412586</v>
+        <v>0.19964315468853655</v>
       </c>
       <c r="I55">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H55/$F$17,B55+$C$5*$C$2)</f>
-        <v>9.5074865506204809E-2</v>
+        <v>9.9614571254389023E-2</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="5"/>
@@ -27067,7 +28027,7 @@
       </c>
       <c r="L55">
         <f ca="1"/>
-        <v>3.1472382236748947E-2</v>
+        <v>3.8385558517191457E-2</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -27093,11 +28053,11 @@
       </c>
       <c r="H56">
         <f ca="1"/>
-        <v>0.21857262820791029</v>
+        <v>0.21875018736252261</v>
       </c>
       <c r="I56">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H56/$F$17,B56+$C$5*$C$2)</f>
-        <v>9.2550415527070315E-2</v>
+        <v>9.9639549017562751E-2</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="5"/>
@@ -27105,7 +28065,7 @@
       </c>
       <c r="L56">
         <f ca="1"/>
-        <v>2.4448448989353763E-2</v>
+        <v>2.9129142782493119E-2</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -27131,11 +28091,11 @@
       </c>
       <c r="H57">
         <f ca="1"/>
-        <v>0.23779900269890375</v>
+        <v>0.23798163876029038</v>
       </c>
       <c r="I57">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H57/$F$17,B57+$C$5*$C$2)</f>
-        <v>8.3659789648681371E-2</v>
+        <v>9.9772198654478728E-2</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="5"/>
@@ -27143,7 +28103,7 @@
       </c>
       <c r="L57">
         <f ca="1"/>
-        <v>1.8682920958290668E-2</v>
+        <v>2.1087792905498694E-2</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -27169,11 +28129,11 @@
       </c>
       <c r="H58">
         <f ca="1"/>
-        <v>0.25709382521210583</v>
+        <v>0.25728931303527697</v>
       </c>
       <c r="I58">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H58/$F$17,B58+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.10001935834086535</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="5"/>
@@ -27181,7 +28141,7 @@
       </c>
       <c r="L58">
         <f ca="1"/>
-        <v>1.4073929808035377E-2</v>
+        <v>1.467704190493371E-2</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -27207,11 +28167,11 @@
       </c>
       <c r="H59">
         <f ca="1"/>
-        <v>0.27643247422865258</v>
+        <v>0.27664193779913804</v>
       </c>
       <c r="I59">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H59/$F$17,B59+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.10038130011368435</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="5"/>
@@ -27219,7 +28179,7 @@
       </c>
       <c r="L59">
         <f ca="1"/>
-        <v>1.0469129832398385E-2</v>
+        <v>9.8850284873259284E-3</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -27245,11 +28205,11 @@
       </c>
       <c r="H60">
         <f ca="1"/>
-        <v>0.2957988408784909</v>
+        <v>0.29602023911411168</v>
       </c>
       <c r="I60">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H60/$F$17,B60+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.10085868468153374</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="5"/>
@@ -27257,7 +28217,7 @@
       </c>
       <c r="L60">
         <f ca="1"/>
-        <v>7.7010876404705192E-3</v>
+        <v>6.4764467845450863E-3</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -27283,11 +28243,11 @@
       </c>
       <c r="H61">
         <f ca="1"/>
-        <v>0.31518254644707178</v>
+        <v>0.31541281896003115</v>
       </c>
       <c r="I61">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H61/$F$17,B61+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.10145929885530502</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="5"/>
@@ -27295,7 +28255,7 @@
       </c>
       <c r="L61">
         <f ca="1"/>
-        <v>5.6086494448224257E-3</v>
+        <v>4.1452207261635059E-3</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -27321,11 +28281,11 @@
       </c>
       <c r="H62">
         <f ca="1"/>
-        <v>0.3345769929167644</v>
+        <v>0.33481316012425483</v>
       </c>
       <c r="I62">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H62/$F$17,B62+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.10220639502437047</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="5"/>
@@ -27333,7 +28293,7 @@
       </c>
       <c r="L62">
         <f ca="1"/>
-        <v>4.0481565909307564E-3</v>
+        <v>2.6006470166122322E-3</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -27359,11 +28319,11 @@
       </c>
       <c r="H63">
         <f ca="1"/>
-        <v>0.35397803471894096</v>
+        <v>0.35421763852221766</v>
       </c>
       <c r="I63">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H63/$F$17,B63+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.10315011829839703</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="5"/>
@@ -27371,7 +28331,7 @@
       </c>
       <c r="L63">
         <f ca="1"/>
-        <v>2.8979112782044326E-3</v>
+        <v>1.6037098693364093E-3</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -27397,11 +28357,11 @@
       </c>
       <c r="H64">
         <f ca="1"/>
-        <v>0.37338309404408482</v>
+        <v>0.37362428540093029</v>
       </c>
       <c r="I64">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H64/$F$17,B64+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.10438049001609895</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="5"/>
@@ -27409,7 +28369,7 @@
       </c>
       <c r="L64">
         <f ca="1"/>
-        <v>2.0585221240517109E-3</v>
+        <v>9.7419022038207044E-4</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -27435,11 +28395,11 @@
       </c>
       <c r="H65">
         <f ca="1"/>
-        <v>0.39279058259736899</v>
+        <v>0.39303205225275151</v>
       </c>
       <c r="I65">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H65/$F$17,B65+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.10603079085614128</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="5"/>
@@ -27447,7 +28407,7 @@
       </c>
       <c r="L65">
         <f ca="1"/>
-        <v>1.4509874063594148E-3</v>
+        <v>5.8399043191101829E-4</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -27473,11 +28433,11 @@
       </c>
       <c r="H66">
         <f ca="1"/>
-        <v>0.41219952962539369</v>
+        <v>0.4124403900895281</v>
       </c>
       <c r="I66">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H66/$F$17,B66+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.10824645633834178</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="5"/>
@@ -27485,7 +28445,7 @@
       </c>
       <c r="L66">
         <f ca="1"/>
-        <v>1.0137268959733256E-3</v>
+        <v>3.4591449387299822E-4</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -27511,11 +28471,11 @@
       </c>
       <c r="H67">
         <f ca="1"/>
-        <v>0.43160934586302008</v>
+        <v>0.43184901565817524</v>
       </c>
       <c r="I67">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H67/$F$17,B67+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.11110852803227794</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="5"/>
@@ -27523,7 +28483,7 @@
       </c>
       <c r="L67">
         <f ca="1"/>
-        <v>6.992794089055942E-4</v>
+        <v>2.0253126783069115E-4</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -27549,11 +28509,11 @@
       </c>
       <c r="H68">
         <f ca="1"/>
-        <v>0.45101967545849364</v>
+        <v>0.45125778464325605</v>
       </c>
       <c r="I68">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H68/$F$17,B68+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.11456947665892403</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="5"/>
@@ -27561,7 +28521,7 @@
       </c>
       <c r="L68">
         <f ca="1"/>
-        <v>4.7102505635140973E-4</v>
+        <v>1.169401188772207E-4</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -27587,11 +28547,11 @@
       </c>
       <c r="H69">
         <f ca="1"/>
-        <v>0.47043030397299507</v>
+        <v>0.47066662426326383</v>
       </c>
       <c r="I69">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H69/$F$17,B69+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.11885572331739847</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="5"/>
@@ -27599,7 +28559,7 @@
       </c>
       <c r="L69">
         <f ca="1"/>
-        <v>3.0003271190509107E-4</v>
+        <v>6.5787805870894293E-5</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -27625,11 +28585,11 @@
       </c>
       <c r="H70">
         <f ca="1"/>
-        <v>0.48984110162506667</v>
+        <v>0.49007549802336298</v>
       </c>
       <c r="I70">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H70/$F$17,B70+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.12864561358078241</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="5"/>
@@ -27637,7 +28597,7 @@
       </c>
       <c r="L70">
         <f ca="1"/>
-        <v>1.6193266408592478E-4</v>
+        <v>3.4227232339419984E-5</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -27663,11 +28623,11 @@
       </c>
       <c r="H71">
         <f ca="1"/>
-        <v>0.50925198838637209</v>
+        <v>0.50948438750226521</v>
       </c>
       <c r="I71">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H71/$F$17,B71+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.13875715945253275</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="5"/>
@@ -27675,7 +28635,7 @@
       </c>
       <c r="L71">
         <f ca="1"/>
-        <v>3.3527660624876458E-5</v>
+        <v>1.2265189698951722E-5</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -27701,11 +28661,11 @@
       </c>
       <c r="H72">
         <f ca="1"/>
-        <v>0.52866291241418351</v>
+        <v>0.52889328296800975</v>
       </c>
       <c r="I72">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H72/$F$17,B72+$C$5*$C$2)</f>
-        <v>0</v>
+        <v>0.14642541002724796</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="5"/>
@@ -27713,7 +28673,7 @@
       </c>
       <c r="L72">
         <f ca="1"/>
-        <v>6.4035466751420427E-4</v>
+        <v>4.6833431498368615E-5</v>
       </c>
     </row>
   </sheetData>
@@ -27726,8 +28686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -27874,7 +28834,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -27896,14 +28856,14 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <f ca="1">NOW()</f>
-        <v>44917.460801388886</v>
+        <v>44917.465809259258</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="11">
         <f ca="1">IF(B28&lt;&gt;"",NOW()-A25)</f>
-        <v>1.1574593372642994E-7</v>
+        <v>2.314845914952457E-7</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -27933,7 +28893,7 @@
       </c>
       <c r="C28" s="27">
         <f ca="1"/>
-        <v>1.2725261628052823E-2</v>
+        <v>1.2719210900348134E-2</v>
       </c>
       <c r="E28" t="s">
         <v>44</v>
@@ -28030,14 +28990,14 @@
       </c>
       <c r="C31" s="7">
         <f ca="1"/>
-        <v>-2.7186754273000249E-11</v>
+        <v>-1.9725405900275797E-11</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
       <c r="F31">
         <f ca="1">_xll.xBachelierImplied(C9,C10,C28/F27,F28)</f>
-        <v>9.9987087662795363E-2</v>
+        <v>9.9966380120421777E-2</v>
       </c>
       <c r="I31" s="18">
         <v>2</v>
@@ -28069,11 +29029,11 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <f ca="1"/>
-        <v>-0.49</v>
+        <v>-0.495</v>
       </c>
       <c r="C32" s="7">
         <f ca="1"/>
-        <v>1.1336183699815733E-10</v>
+        <v>3.3723876964109825E-11</v>
       </c>
       <c r="I32" s="18">
         <v>5</v>
@@ -28105,11 +29065,11 @@
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <f ca="1"/>
-        <v>-0.48</v>
+        <v>-0.49</v>
       </c>
       <c r="C33" s="7">
         <f ca="1"/>
-        <v>2.9418881130409177E-10</v>
+        <v>9.1131324673061873E-11</v>
       </c>
       <c r="I33" s="18">
         <v>10</v>
@@ -28141,11 +29101,11 @@
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <f ca="1"/>
-        <v>-0.47</v>
+        <v>-0.48499999999999999</v>
       </c>
       <c r="C34" s="7">
         <f ca="1"/>
-        <v>5.681698954477247E-10</v>
+        <v>1.5683270978996167E-10</v>
       </c>
       <c r="I34" s="18">
         <v>20</v>
@@ -28177,11 +29137,11 @@
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <f ca="1"/>
-        <v>-0.45999999999999996</v>
+        <v>-0.48</v>
       </c>
       <c r="C35" s="7">
         <f ca="1"/>
-        <v>1.0144294212279189E-9</v>
+        <v>2.3583192826165664E-10</v>
       </c>
       <c r="I35" s="18">
         <v>50</v>
@@ -28213,11 +29173,11 @@
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <f ca="1"/>
-        <v>-0.44999999999999996</v>
+        <v>-0.47499999999999998</v>
       </c>
       <c r="C36" s="7">
         <f ca="1"/>
-        <v>1.7584059174818601E-9</v>
+        <v>3.3413817237462457E-10</v>
       </c>
       <c r="I36" s="18">
         <v>100</v>
@@ -28251,11 +29211,11 @@
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <f ca="1"/>
-        <v>-0.43999999999999995</v>
+        <v>-0.47</v>
       </c>
       <c r="C37" s="7">
         <f ca="1"/>
-        <v>3.0026506453195449E-9</v>
+        <v>4.5916924930693943E-10</v>
       </c>
       <c r="I37" s="18">
         <v>200</v>
@@ -28289,11 +29249,11 @@
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <f ca="1"/>
-        <v>-0.42999999999999994</v>
+        <v>-0.46499999999999997</v>
       </c>
       <c r="C38" s="7">
         <f ca="1"/>
-        <v>5.0747257213813625E-9</v>
+        <v>6.2024417990583193E-10</v>
       </c>
       <c r="I38" s="18">
         <v>400</v>
@@ -28327,11 +29287,11 @@
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <f ca="1"/>
-        <v>-0.41999999999999993</v>
+        <v>-0.45999999999999996</v>
       </c>
       <c r="C39" s="7">
         <f ca="1"/>
-        <v>8.5016543829781049E-9</v>
+        <v>8.2919293303193089E-10</v>
       </c>
       <c r="I39" s="18">
         <v>800</v>
@@ -28365,11 +29325,11 @@
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <f ca="1"/>
-        <v>-0.40999999999999992</v>
+        <v>-0.45499999999999996</v>
       </c>
       <c r="C40" s="7">
         <f ca="1"/>
-        <v>1.4124908792375413E-8</v>
+        <v>1.101117139085177E-9</v>
       </c>
       <c r="I40" s="18">
         <v>1600</v>
@@ -28403,11 +29363,11 @@
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <f ca="1"/>
-        <v>-0.39999999999999991</v>
+        <v>-0.44999999999999996</v>
       </c>
       <c r="C41" s="7">
         <f ca="1"/>
-        <v>2.3276453141176164E-8</v>
+        <v>1.4553431164688018E-9</v>
       </c>
       <c r="I41" s="18">
         <v>3200</v>
@@ -28441,11 +29401,11 @@
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <f ca="1"/>
-        <v>-0.3899999999999999</v>
+        <v>-0.44499999999999995</v>
       </c>
       <c r="C42" s="7">
         <f ca="1"/>
-        <v>3.8045619274554258E-8</v>
+        <v>1.9166178178600951E-9</v>
       </c>
       <c r="I42" s="18">
         <v>6400</v>
@@ -28479,11 +29439,11 @@
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <f ca="1"/>
-        <v>-0.37999999999999989</v>
+        <v>-0.43999999999999995</v>
       </c>
       <c r="C43" s="7">
         <f ca="1"/>
-        <v>6.1679512463519256E-8</v>
+        <v>2.5166096934198018E-9</v>
       </c>
       <c r="I43" s="18">
         <v>10000</v>
@@ -28517,11 +29477,11 @@
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <f ca="1"/>
-        <v>-0.36999999999999988</v>
+        <v>-0.43499999999999994</v>
       </c>
       <c r="C44" s="7">
         <f ca="1"/>
-        <v>9.9177392914479753E-8</v>
+        <v>3.2957903696067824E-9</v>
       </c>
       <c r="I44" s="18">
         <v>100000</v>
@@ -28555,11 +29515,11 @@
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <f ca="1"/>
-        <v>-0.35999999999999988</v>
+        <v>-0.42999999999999994</v>
       </c>
       <c r="C45" s="7">
         <f ca="1"/>
-        <v>1.5816346814894949E-7</v>
+        <v>4.3057899165369566E-9</v>
       </c>
       <c r="I45" s="18">
         <v>1000000</v>
@@ -28577,11 +29537,11 @@
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <f ca="1"/>
-        <v>-0.34999999999999987</v>
+        <v>-0.42499999999999993</v>
       </c>
       <c r="C46" s="7">
         <f ca="1"/>
-        <v>2.5015441719760054E-7</v>
+        <v>5.6123388605094477E-9</v>
       </c>
       <c r="I46" s="18">
         <v>10000000</v>
@@ -28608,11 +29568,11 @@
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <f ca="1"/>
-        <v>-0.33999999999999986</v>
+        <v>-0.41999999999999993</v>
       </c>
       <c r="C47" s="7">
         <f ca="1"/>
-        <v>3.923796042586014E-7</v>
+        <v>7.2989346115019435E-9</v>
       </c>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
@@ -28621,11 +29581,11 @@
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48">
         <f ca="1"/>
-        <v>-0.32999999999999985</v>
+        <v>-0.41499999999999992</v>
       </c>
       <c r="C48">
         <f ca="1"/>
-        <v>6.1036529191657509E-7</v>
+        <v>9.4713993299780866E-9</v>
       </c>
       <c r="J48" s="17">
         <f ca="1">J46-$C$6</f>
@@ -28643,171 +29603,171 @@
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49">
         <f ca="1"/>
-        <v>-0.31999999999999984</v>
+        <v>-0.40999999999999992</v>
       </c>
       <c r="C49">
         <f ca="1"/>
-        <v>9.4156115178304174E-7</v>
+        <v>1.2263531265223227E-8</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50">
         <f ca="1"/>
-        <v>-0.30999999999999983</v>
+        <v>-0.40499999999999992</v>
       </c>
       <c r="C50">
         <f ca="1"/>
-        <v>1.4403696298015672E-6</v>
+        <v>1.5844093178691188E-8</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51">
         <f ca="1"/>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="C51">
         <f ca="1"/>
-        <v>2.1850372729054303E-6</v>
+        <v>2.0425430655943298E-8</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52">
         <f ca="1"/>
-        <v>-0.28999999999999981</v>
+        <v>-0.39499999999999991</v>
       </c>
       <c r="C52">
         <f ca="1"/>
-        <v>3.2869819250983969E-6</v>
+        <v>2.6274071066670943E-8</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53">
         <f ca="1"/>
-        <v>-0.2799999999999998</v>
+        <v>-0.3899999999999999</v>
       </c>
       <c r="C53">
         <f ca="1"/>
-        <v>4.9032591204823675E-6</v>
+        <v>3.3723721937041492E-8</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54">
         <f ca="1"/>
-        <v>-0.2699999999999998</v>
+        <v>-0.3849999999999999</v>
       </c>
       <c r="C54">
         <f ca="1"/>
-        <v>7.2530111893517928E-6</v>
+        <v>4.3191166963516362E-8</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55">
         <f ca="1"/>
-        <v>-0.25999999999999979</v>
+        <v>-0.37999999999999989</v>
       </c>
       <c r="C55">
         <f ca="1"/>
-        <v>1.0638886830147192E-5</v>
+        <v>5.5195650361251016E-8</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56">
         <f ca="1"/>
-        <v>-0.24999999999999978</v>
+        <v>-0.37499999999999989</v>
       </c>
       <c r="C56">
         <f ca="1"/>
-        <v>1.5474556965608848E-5</v>
+        <v>7.0382447365172085E-8</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57">
         <f ca="1"/>
-        <v>-0.23999999999999977</v>
+        <v>-0.36999999999999988</v>
       </c>
       <c r="C57">
         <f ca="1"/>
-        <v>2.231957038110258E-5</v>
+        <v>8.9551442263739505E-8</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58">
         <f ca="1"/>
-        <v>-0.22999999999999976</v>
+        <v>-0.36499999999999988</v>
       </c>
       <c r="C58">
         <f ca="1"/>
-        <v>3.1922871481852527E-5</v>
+        <v>1.1369167721929832E-7</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59">
         <f ca="1"/>
-        <v>-0.21999999999999975</v>
+        <v>-0.35999999999999988</v>
       </c>
       <c r="C59">
         <f ca="1"/>
-        <v>4.5276319961244218E-5</v>
+        <v>1.4402299726756779E-7</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60">
         <f ca="1"/>
-        <v>-0.20999999999999974</v>
+        <v>-0.35499999999999987</v>
       </c>
       <c r="C60">
         <f ca="1"/>
-        <v>6.3679482315066505E-5</v>
+        <v>1.8204610129346516E-7</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61">
         <f ca="1"/>
-        <v>-0.19999999999999973</v>
+        <v>-0.34999999999999987</v>
       </c>
       <c r="C61">
         <f ca="1"/>
-        <v>8.8816780035522907E-5</v>
+        <v>2.296025174627977E-7</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62">
         <f ca="1"/>
-        <v>-0.18999999999999972</v>
+        <v>-0.34499999999999986</v>
       </c>
       <c r="C62">
         <f ca="1"/>
-        <v>1.2284775120729939E-4</v>
+        <v>2.8894625652343071E-7</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63">
         <f ca="1"/>
-        <v>-0.17999999999999972</v>
+        <v>-0.33999999999999986</v>
       </c>
       <c r="C63">
         <f ca="1"/>
-        <v>1.6851068647388059E-4</v>
+        <v>3.628291594527057E-7</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64">
         <f ca="1"/>
-        <v>-0.16999999999999971</v>
+        <v>-0.33499999999999985</v>
       </c>
       <c r="C64">
         <f ca="1"/>
-        <v>2.2923921914381009E-4</v>
+        <v>4.5460224882979277E-7</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65">
         <f ca="1"/>
-        <v>-0.1599999999999997</v>
+        <v>-0.32999999999999985</v>
       </c>
       <c r="C65">
         <f ca="1"/>
-        <v>3.0929057580271333E-4</v>
+        <v>5.6833571751053174E-7</v>
       </c>
       <c r="J65" t="s">
         <v>1</v>
@@ -28819,11 +29779,11 @@
     <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66">
         <f ca="1"/>
-        <v>-0.14999999999999969</v>
+        <v>-0.32499999999999984</v>
       </c>
       <c r="C66">
         <f ca="1"/>
-        <v>4.1388313683786253E-4</v>
+        <v>7.0896054478795963E-7</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
@@ -28856,18 +29816,18 @@
     <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67">
         <f ca="1"/>
-        <v>-0.13999999999999968</v>
+        <v>-0.31999999999999984</v>
       </c>
       <c r="C67">
         <f ca="1"/>
-        <v>5.4933974386071416E-4</v>
+        <v>8.8243511988511961E-7</v>
       </c>
       <c r="F67" t="s">
         <v>29</v>
       </c>
       <c r="G67" s="20">
         <f ca="1">F31</f>
-        <v>9.9987087662795363E-2</v>
+        <v>9.9966380120421777E-2</v>
       </c>
       <c r="I67" s="23">
         <v>1</v>
@@ -28895,11 +29855,11 @@
     <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68">
         <f ca="1"/>
-        <v>-0.12999999999999967</v>
+        <v>-0.31499999999999984</v>
       </c>
       <c r="C68">
         <f ca="1"/>
-        <v>7.2323187374218262E-4</v>
+        <v>1.0959406754163648E-6</v>
       </c>
       <c r="I68" s="23">
         <v>2</v>
@@ -28927,11 +29887,11 @@
     <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69">
         <f ca="1"/>
-        <v>-0.11999999999999968</v>
+        <v>-0.30999999999999983</v>
       </c>
       <c r="C69">
         <f ca="1"/>
-        <v>9.4451845143470026E-4</v>
+        <v>1.3581097887188782E-6</v>
       </c>
       <c r="I69" s="23">
         <v>5</v>
@@ -28959,11 +29919,11 @@
     <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70">
         <f ca="1"/>
-        <v>-0.10999999999999968</v>
+        <v>-0.30499999999999983</v>
       </c>
       <c r="C70">
         <f ca="1"/>
-        <v>1.2236717936455624E-3</v>
+        <v>1.6792926951807619E-6</v>
       </c>
       <c r="I70" s="23">
         <v>10</v>
@@ -28991,11 +29951,11 @@
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71">
         <f ca="1"/>
-        <v>-9.9999999999999686E-2</v>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="C71">
         <f ca="1"/>
-        <v>1.572782079897556E-3</v>
+        <v>2.0718666723356002E-6</v>
       </c>
       <c r="I71" s="23">
         <v>20</v>
@@ -29023,11 +29983,11 @@
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72">
         <f ca="1"/>
-        <v>-8.9999999999999691E-2</v>
+        <v>-0.29499999999999982</v>
       </c>
       <c r="C72">
         <f ca="1"/>
-        <v>2.0056309663567173E-3</v>
+        <v>2.5505942928283904E-6</v>
       </c>
       <c r="I72" s="23">
         <v>50</v>
@@ -29055,11 +30015,11 @@
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73">
         <f ca="1"/>
-        <v>-7.9999999999999696E-2</v>
+        <v>-0.28999999999999981</v>
       </c>
       <c r="C73">
         <f ca="1"/>
-        <v>2.5377246235497317E-3</v>
+        <v>3.1330369033023785E-6</v>
       </c>
       <c r="I73" s="23">
         <v>100</v>
@@ -29093,11 +30053,11 @@
     <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74">
         <f ca="1"/>
-        <v>-6.9999999999999701E-2</v>
+        <v>-0.28499999999999981</v>
       </c>
       <c r="C74">
         <f ca="1"/>
-        <v>3.1862767144487784E-3</v>
+        <v>3.8400302582085217E-6</v>
       </c>
       <c r="I74" s="23">
         <v>200</v>
@@ -29131,11 +30091,11 @@
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75">
         <f ca="1"/>
-        <v>-5.9999999999999699E-2</v>
+        <v>-0.2799999999999998</v>
       </c>
       <c r="C75">
         <f ca="1"/>
-        <v>3.9701327329970323E-3</v>
+        <v>4.6962298142170378E-6</v>
       </c>
       <c r="I75" s="23">
         <v>400</v>
@@ -29169,11 +30129,11 @@
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76">
         <f ca="1"/>
-        <v>-4.9999999999999697E-2</v>
+        <v>-0.2749999999999998</v>
       </c>
       <c r="C76">
         <f ca="1"/>
-        <v>4.9096287548741329E-3</v>
+        <v>5.7307337622047976E-6</v>
       </c>
       <c r="I76" s="23">
         <v>800</v>
@@ -29207,11 +30167,11 @@
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77">
         <f ca="1"/>
-        <v>-3.9999999999999696E-2</v>
+        <v>-0.2699999999999998</v>
       </c>
       <c r="C77">
         <f ca="1"/>
-        <v>6.0263800199679462E-3</v>
+        <v>6.9777924276398073E-6</v>
       </c>
       <c r="I77" s="23">
         <v>1600</v>
@@ -29245,11 +30205,11 @@
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78">
         <f ca="1"/>
-        <v>-2.9999999999999694E-2</v>
+        <v>-0.26499999999999979</v>
       </c>
       <c r="C78">
         <f ca="1"/>
-        <v>7.3429978151682788E-3</v>
+        <v>8.477613192466962E-6</v>
       </c>
       <c r="I78" s="23">
         <v>3200</v>
@@ -29283,11 +30243,11 @@
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79">
         <f ca="1"/>
-        <v>-1.9999999999999692E-2</v>
+        <v>-0.25999999999999979</v>
       </c>
       <c r="C79">
         <f ca="1"/>
-        <v>8.8827367347544886E-3</v>
+        <v>1.0277270566082158E-5</v>
       </c>
       <c r="I79" s="23">
         <v>6400</v>
@@ -29321,11 +30281,11 @@
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80">
         <f ca="1"/>
-        <v>-9.9999999999996914E-3</v>
+        <v>-0.25499999999999978</v>
       </c>
       <c r="C80">
         <f ca="1"/>
-        <v>1.0669078375468414E-2</v>
+        <v>1.2431731441292327E-5</v>
       </c>
       <c r="I80" s="23">
         <v>10000</v>
@@ -29359,11 +30319,11 @@
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81">
         <f ca="1"/>
-        <v>3.0878077872387166E-16</v>
+        <v>-0.24999999999999978</v>
       </c>
       <c r="C81">
         <f ca="1"/>
-        <v>1.2725261628052823E-2</v>
+        <v>1.5005005892825246E-5</v>
       </c>
       <c r="I81" s="23">
         <v>100000</v>
@@ -29397,11 +30357,11 @@
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82">
         <f ca="1"/>
-        <v>1.0000000000000309E-2</v>
+        <v>-0.24499999999999977</v>
       </c>
       <c r="C82">
         <f ca="1"/>
-        <v>1.5073773668109424E-2</v>
+        <v>1.8071434088503773E-5</v>
       </c>
       <c r="I82" s="23">
         <v>1000000</v>
@@ -29419,11 +30379,11 @@
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83">
         <f ca="1"/>
-        <v>2.0000000000000309E-2</v>
+        <v>-0.23999999999999977</v>
       </c>
       <c r="C83">
         <f ca="1"/>
-        <v>1.7735819218162866E-2</v>
+        <v>2.1717119962338588E-5</v>
       </c>
       <c r="I83" s="18">
         <v>10000000</v>
@@ -29447,851 +30407,851 @@
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84">
         <f ca="1"/>
-        <v>3.0000000000000311E-2</v>
+        <v>-0.23499999999999976</v>
       </c>
       <c r="C84">
         <f ca="1"/>
-        <v>2.0730788348391687E-2</v>
+        <v>2.6041522218658345E-5</v>
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85">
         <f ca="1"/>
-        <v>4.0000000000000313E-2</v>
+        <v>-0.22999999999999976</v>
       </c>
       <c r="C85">
         <f ca="1"/>
-        <v>2.4075744740263347E-2</v>
+        <v>3.1159212969901606E-5</v>
       </c>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86">
         <f ca="1"/>
-        <v>5.0000000000000315E-2</v>
+        <v>-0.22499999999999976</v>
       </c>
       <c r="C86">
         <f ca="1"/>
-        <v>2.7784956754078896E-2</v>
+        <v>3.7201813829978761E-5</v>
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87">
         <f ca="1"/>
-        <v>6.0000000000000317E-2</v>
+        <v>-0.21999999999999975</v>
       </c>
       <c r="C87">
         <f ca="1"/>
-        <v>3.1869492704860544E-2</v>
+        <v>4.4320118562075951E-5</v>
       </c>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88">
         <f ca="1"/>
-        <v>7.0000000000000312E-2</v>
+        <v>-0.21499999999999975</v>
       </c>
       <c r="C88">
         <f ca="1"/>
-        <v>3.6336899452047988E-2</v>
+        <v>5.2686410386727737E-5</v>
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89">
         <f ca="1"/>
-        <v>8.0000000000000307E-2</v>
+        <v>-0.20999999999999974</v>
       </c>
       <c r="C89">
         <f ca="1"/>
-        <v>4.1190979849038301E-2</v>
+        <v>6.2496980766393276E-5</v>
       </c>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90">
         <f ca="1"/>
-        <v>9.0000000000000302E-2</v>
+        <v>-0.20499999999999974</v>
       </c>
       <c r="C90">
         <f ca="1"/>
-        <v>4.6431679987343349E-2</v>
+        <v>7.3974854872087175E-5</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91">
         <f ca="1"/>
-        <v>0.1000000000000003</v>
+        <v>-0.19999999999999973</v>
       </c>
       <c r="C91">
         <f ca="1"/>
-        <v>5.205509180708455E-2</v>
+        <v>8.7372726984209285E-5</v>
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92">
         <f ca="1"/>
-        <v>0.11000000000000029</v>
+        <v>-0.19499999999999973</v>
       </c>
       <c r="C92">
         <f ca="1"/>
-        <v>5.8053570897141221E-2</v>
+        <v>1.0297610676586997E-4</v>
       </c>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93">
         <f ca="1"/>
-        <v>0.12000000000000029</v>
+        <v>-0.18999999999999972</v>
       </c>
       <c r="C93">
         <f ca="1"/>
-        <v>6.4415963575211815E-2</v>
+        <v>1.2110667465996264E-4</v>
       </c>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94">
         <f ca="1"/>
-        <v>0.13000000000000028</v>
+        <v>-0.18499999999999972</v>
       </c>
       <c r="C94">
         <f ca="1"/>
-        <v>7.1127932019404511E-2</v>
+        <v>1.4212584159428431E-4</v>
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95">
         <f ca="1"/>
-        <v>0.14000000000000029</v>
+        <v>-0.17999999999999972</v>
       </c>
       <c r="C95">
         <f ca="1"/>
-        <v>7.8172361680517055E-2</v>
+        <v>1.664385047325737E-4</v>
       </c>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96">
         <f ca="1"/>
-        <v>0.1500000000000003</v>
+        <v>-0.17499999999999971</v>
       </c>
       <c r="C96">
         <f ca="1"/>
-        <v>8.5529831730789541E-2</v>
+        <v>1.9449698719204529E-4</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97">
         <f ca="1"/>
-        <v>0.16000000000000031</v>
+        <v>-0.16999999999999971</v>
       </c>
       <c r="C97">
         <f ca="1"/>
-        <v>9.3179127100515347E-2</v>
+        <v>2.2680514547766801E-4</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98">
         <f ca="1"/>
-        <v>0.17000000000000032</v>
+        <v>-0.1649999999999997</v>
       </c>
       <c r="C98">
         <f ca="1"/>
-        <v>0.10109776981112031</v>
+        <v>2.639226238879826E-4</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99">
         <f ca="1"/>
-        <v>0.18000000000000033</v>
+        <v>-0.1599999999999997</v>
       </c>
       <c r="C99">
         <f ca="1"/>
-        <v>0.10926254781435307</v>
+        <v>3.0646923036545075E-4</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100">
         <f ca="1"/>
-        <v>0.19000000000000034</v>
+        <v>-0.15499999999999969</v>
       </c>
       <c r="C100">
         <f ca="1"/>
-        <v>0.1176500212714517</v>
+        <v>3.5512940324638467E-4</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101">
         <f ca="1"/>
-        <v>0.20000000000000034</v>
+        <v>-0.14999999999999969</v>
       </c>
       <c r="C101">
         <f ca="1"/>
-        <v>0.12623698894727839</v>
+        <v>4.1065673317341696E-4</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102">
         <f ca="1"/>
-        <v>0.21000000000000035</v>
+        <v>-0.14499999999999968</v>
       </c>
       <c r="C102">
         <f ca="1"/>
-        <v>0.13500090088463571</v>
+        <v>4.7387849914109635E-4</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103">
         <f ca="1"/>
-        <v>0.22000000000000036</v>
+        <v>-0.13999999999999968</v>
       </c>
       <c r="C103">
         <f ca="1"/>
-        <v>0.14392020746209266</v>
+        <v>5.4570017233805505E-4</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104">
         <f ca="1"/>
-        <v>0.23000000000000037</v>
+        <v>-0.13499999999999968</v>
       </c>
       <c r="C104">
         <f ca="1"/>
-        <v>0.15297463901885705</v>
+        <v>6.2710983622389486E-4</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105">
         <f ca="1"/>
-        <v>0.24000000000000038</v>
+        <v>-0.12999999999999967</v>
       </c>
       <c r="C105">
         <f ca="1"/>
-        <v>0.16214541416857181</v>
+        <v>7.1918246624226557E-4</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106">
         <f ca="1"/>
-        <v>0.25000000000000039</v>
+        <v>-0.12499999999999967</v>
       </c>
       <c r="C106">
         <f ca="1"/>
-        <v>0.1714153784798122</v>
+        <v>8.2308400783921991E-4</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107">
         <f ca="1"/>
-        <v>0.2600000000000004</v>
+        <v>-0.11999999999999966</v>
       </c>
       <c r="C107">
         <f ca="1"/>
-        <v>0.18076907819233129</v>
+        <v>9.400751871506581E-4</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108">
         <f ca="1"/>
-        <v>0.27000000000000041</v>
+        <v>-0.11499999999999966</v>
       </c>
       <c r="C108">
         <f ca="1"/>
-        <v>0.19019277594864814</v>
+        <v>1.0715149849724436E-3</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109">
         <f ca="1"/>
-        <v>0.28000000000000042</v>
+        <v>-0.10999999999999965</v>
       </c>
       <c r="C109">
         <f ca="1"/>
-        <v>0.19967441710093203</v>
+        <v>1.2188637015621609E-3</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110">
         <f ca="1"/>
-        <v>0.29000000000000042</v>
+        <v>-0.10499999999999965</v>
       </c>
       <c r="C110">
         <f ca="1"/>
-        <v>0.20920355601483545</v>
+        <v>1.3836855375728972E-3</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111">
         <f ca="1"/>
-        <v>0.30000000000000043</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="C111">
         <f ca="1"/>
-        <v>0.21877125199706859</v>
+        <v>1.5676506151140138E-3</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112">
         <f ca="1"/>
-        <v>0.31000000000000044</v>
+        <v>-9.499999999999964E-2</v>
       </c>
       <c r="C112">
         <f ca="1"/>
-        <v>0.2283699441214494</v>
+        <v>1.7725363626921731E-3</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113">
         <f ca="1"/>
-        <v>0.32000000000000045</v>
+        <v>-8.9999999999999636E-2</v>
       </c>
       <c r="C113">
         <f ca="1"/>
-        <v>0.23799331344101382</v>
+        <v>2.0002281887183211E-3</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114">
         <f ca="1"/>
-        <v>0.33000000000000046</v>
+        <v>-8.4999999999999631E-2</v>
       </c>
       <c r="C114">
         <f ca="1"/>
-        <v>0.24763613998243078</v>
+        <v>2.252719370469591E-3</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115">
         <f ca="1"/>
-        <v>0.34000000000000047</v>
+        <v>-7.9999999999999627E-2</v>
       </c>
       <c r="C115">
         <f ca="1"/>
-        <v>0.2572941606509182</v>
+        <v>2.5321100889485163E-3</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116">
         <f ca="1"/>
-        <v>0.35000000000000048</v>
+        <v>-7.4999999999999623E-2</v>
       </c>
       <c r="C116">
         <f ca="1"/>
-        <v>0.26696393284363307</v>
+        <v>2.8406055450440684E-3</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117">
         <f ca="1"/>
-        <v>0.36000000000000049</v>
+        <v>-6.9999999999999618E-2</v>
       </c>
       <c r="C117">
         <f ca="1"/>
-        <v>0.2766427072722093</v>
+        <v>3.1805130988042944E-3</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118">
         <f ca="1"/>
-        <v>0.3700000000000005</v>
+        <v>-6.4999999999999614E-2</v>
       </c>
       <c r="C118">
         <f ca="1"/>
-        <v>0.28632831230299188</v>
+        <v>3.5542383814860037E-3</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119">
         <f ca="1"/>
-        <v>0.3800000000000005</v>
+        <v>-5.9999999999999616E-2</v>
       </c>
       <c r="C119">
         <f ca="1"/>
-        <v>0.29601905108528587</v>
+        <v>3.9642803393310508E-3</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120">
         <f ca="1"/>
-        <v>0.39000000000000051</v>
+        <v>-5.4999999999999619E-2</v>
       </c>
       <c r="C120">
         <f ca="1"/>
-        <v>0.3057136118803182</v>
+        <v>4.4132251786774494E-3</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121">
         <f ca="1"/>
-        <v>0.40000000000000052</v>
+        <v>-4.9999999999999621E-2</v>
       </c>
       <c r="C121">
         <f ca="1"/>
-        <v>0.31541099133437295</v>
+        <v>4.9037391939605723E-3</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122">
         <f ca="1"/>
-        <v>0.41000000000000053</v>
+        <v>-4.4999999999999624E-2</v>
       </c>
       <c r="C122">
         <f ca="1"/>
-        <v>0.32511042995148232</v>
+        <v>5.4385604732750748E-3</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123">
         <f ca="1"/>
-        <v>0.42000000000000054</v>
+        <v>-3.9999999999999626E-2</v>
       </c>
       <c r="C123">
         <f ca="1"/>
-        <v>0.33481135869615924</v>
+        <v>6.0204894902994082E-3</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124">
         <f ca="1"/>
-        <v>0.43000000000000055</v>
+        <v>-3.4999999999999629E-2</v>
       </c>
       <c r="C124">
         <f ca="1"/>
-        <v>0.34451335547023704</v>
+        <v>6.652378606348687E-3</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125">
         <f ca="1"/>
-        <v>0.44000000000000056</v>
+        <v>-2.9999999999999628E-2</v>
       </c>
       <c r="C125">
         <f ca="1"/>
-        <v>0.35421611013201615</v>
+        <v>7.3371205219027518E-3</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126">
         <f ca="1"/>
-        <v>0.45000000000000057</v>
+        <v>-2.4999999999999627E-2</v>
       </c>
       <c r="C126">
         <f ca="1"/>
-        <v>0.3639193967321997</v>
+        <v>8.0776357329039299E-3</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127">
         <f ca="1"/>
-        <v>0.46000000000000058</v>
+        <v>-1.9999999999999626E-2</v>
       </c>
       <c r="C127">
         <f ca="1"/>
-        <v>0.37362305170260313</v>
+        <v>8.8768590631772889E-3</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128">
         <f ca="1"/>
-        <v>0.47000000000000058</v>
+        <v>-1.4999999999999625E-2</v>
       </c>
       <c r="C128">
         <f ca="1"/>
-        <v>0.38332695682598028</v>
+        <v>9.737725360293676E-3</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129">
         <f ca="1"/>
-        <v>0.48000000000000059</v>
+        <v>-9.9999999999996238E-3</v>
       </c>
       <c r="C129">
         <f ca="1"/>
-        <v>0.39303102591716993</v>
+        <v>1.066315445765947E-2</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130">
         <f ca="1"/>
-        <v>0.4900000000000006</v>
+        <v>-4.9999999999996237E-3</v>
       </c>
       <c r="C130">
         <f ca="1"/>
-        <v>0.40273519423856197</v>
+        <v>1.1656035519592312E-2</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131">
         <f ca="1"/>
-        <v>0.50000000000000056</v>
+        <v>3.7643499428696714E-16</v>
       </c>
       <c r="C131">
         <f ca="1"/>
-        <v>0.41243940974024057</v>
+        <v>1.2719210900348134E-2</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C132" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B132">
+        <f ca="1"/>
+        <v>5.0000000000003765E-3</v>
+      </c>
+      <c r="C132">
+        <f ca="1"/>
+        <v>1.3855459666667902E-2</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C133" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B133">
+        <f ca="1"/>
+        <v>1.0000000000000377E-2</v>
+      </c>
+      <c r="C133">
+        <f ca="1"/>
+        <v>1.5067480921479998E-2</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C134" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B134">
+        <f ca="1"/>
+        <v>1.5000000000000378E-2</v>
+      </c>
+      <c r="C134">
+        <f ca="1"/>
+        <v>1.635787706089771E-2</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C135" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B135">
+        <f ca="1"/>
+        <v>2.0000000000000379E-2</v>
+      </c>
+      <c r="C135">
+        <f ca="1"/>
+        <v>1.7729137500721418E-2</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C136" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B136">
+        <f ca="1"/>
+        <v>2.500000000000038E-2</v>
+      </c>
+      <c r="C136">
+        <f ca="1"/>
+        <v>1.9183621475059875E-2</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C137" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B137">
+        <f ca="1"/>
+        <v>3.0000000000000381E-2</v>
+      </c>
+      <c r="C137">
+        <f ca="1"/>
+        <v>2.0723544739177566E-2</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C138" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B138">
+        <f ca="1"/>
+        <v>3.5000000000000378E-2</v>
+      </c>
+      <c r="C138">
+        <f ca="1"/>
+        <v>2.2350959432033496E-2</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C139" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B139">
+        <f ca="1"/>
+        <v>4.0000000000000376E-2</v>
+      </c>
+      <c r="C139">
+        <f ca="1"/>
+        <v>2.4067748620023879E-2</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C140" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B140">
+        <f ca="1"/>
+        <v>4.5000000000000373E-2</v>
+      </c>
+      <c r="C140">
+        <f ca="1"/>
+        <v>2.5875599872968783E-2</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C141" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B141">
+        <f ca="1"/>
+        <v>5.0000000000000371E-2</v>
+      </c>
+      <c r="C141">
+        <f ca="1"/>
+        <v>2.7776010403624547E-2</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C142" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B142">
+        <f ca="1"/>
+        <v>5.5000000000000368E-2</v>
+      </c>
+      <c r="C142">
+        <f ca="1"/>
+        <v>2.9770256463142068E-2</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C143" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B143">
+        <f ca="1"/>
+        <v>6.0000000000000366E-2</v>
+      </c>
+      <c r="C143">
+        <f ca="1"/>
+        <v>3.1859404055035984E-2</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C144" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B144">
+        <f ca="1"/>
+        <v>6.5000000000000363E-2</v>
+      </c>
+      <c r="C144">
+        <f ca="1"/>
+        <v>3.4044283164572711E-2</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C145" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B145">
+        <f ca="1"/>
+        <v>7.0000000000000367E-2</v>
+      </c>
+      <c r="C145">
+        <f ca="1"/>
+        <v>3.6325495671450436E-2</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C146" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B146">
+        <f ca="1"/>
+        <v>7.5000000000000372E-2</v>
+      </c>
+      <c r="C146">
+        <f ca="1"/>
+        <v>3.8703401218465744E-2</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C147" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B147">
+        <f ca="1"/>
+        <v>8.0000000000000376E-2</v>
+      </c>
+      <c r="C147">
+        <f ca="1"/>
+        <v>4.1178120217133053E-2</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C148" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B148">
+        <f ca="1"/>
+        <v>8.5000000000000381E-2</v>
+      </c>
+      <c r="C148">
+        <f ca="1"/>
+        <v>4.3749530114465238E-2</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C149" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B149">
+        <f ca="1"/>
+        <v>9.0000000000000385E-2</v>
+      </c>
+      <c r="C149">
+        <f ca="1"/>
+        <v>4.6417267457523559E-2</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C150" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B150">
+        <f ca="1"/>
+        <v>9.500000000000039E-2</v>
+      </c>
+      <c r="C150">
+        <f ca="1"/>
+        <v>4.9180730276648356E-2</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B151">
+        <f ca="1"/>
+        <v>0.10000000000000039</v>
+      </c>
+      <c r="C151">
+        <f ca="1"/>
+        <v>5.2039082636437826E-2</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B152">
+        <f ca="1"/>
+        <v>0.1050000000000004</v>
+      </c>
+      <c r="C152">
+        <f ca="1"/>
+        <v>5.4991260851617055E-2</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B153">
+        <f ca="1"/>
+        <v>0.1100000000000004</v>
+      </c>
+      <c r="C153">
+        <f ca="1"/>
+        <v>5.8035981326424783E-2</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B154">
+        <f ca="1"/>
+        <v>0.11500000000000041</v>
+      </c>
+      <c r="C154">
+        <f ca="1"/>
+        <v>6.1171749942816378E-2</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B155">
+        <f ca="1"/>
+        <v>0.12000000000000041</v>
+      </c>
+      <c r="C155">
+        <f ca="1"/>
+        <v>6.4396872874739552E-2</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C156" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B156">
+        <f ca="1"/>
+        <v>0.12500000000000042</v>
+      </c>
+      <c r="C156">
+        <f ca="1"/>
+        <v>6.7709468698096242E-2</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C157" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B157">
+        <f ca="1"/>
+        <v>0.13000000000000042</v>
+      </c>
+      <c r="C157">
+        <f ca="1"/>
+        <v>7.1107481653193416E-2</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C158" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B158">
+        <f ca="1"/>
+        <v>0.13500000000000043</v>
+      </c>
+      <c r="C158">
+        <f ca="1"/>
+        <v>7.4588695904113836E-2</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C159" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B159">
+        <f ca="1"/>
+        <v>0.14000000000000043</v>
+      </c>
+      <c r="C159">
+        <f ca="1"/>
+        <v>7.8150750630621352E-2</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C160" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B160">
+        <f ca="1"/>
+        <v>0.14500000000000043</v>
+      </c>
+      <c r="C160">
+        <f ca="1"/>
+        <v>8.1791155782116001E-2</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C161" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B161">
+        <f ca="1"/>
+        <v>0.15000000000000044</v>
+      </c>
+      <c r="C161">
+        <f ca="1"/>
+        <v>8.5507308319617614E-2</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C162" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B162">
+        <f ca="1"/>
+        <v>0.15500000000000044</v>
+      </c>
+      <c r="C162">
+        <f ca="1"/>
+        <v>8.9296508770888433E-2</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C163" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B163">
+        <f ca="1"/>
+        <v>0.16000000000000045</v>
+      </c>
+      <c r="C163">
+        <f ca="1"/>
+        <v>9.3155977925560574E-2</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C164" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B164">
+        <f ca="1"/>
+        <v>0.16500000000000045</v>
+      </c>
+      <c r="C164">
+        <f ca="1"/>
+        <v>9.7082873501380604E-2</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C165" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B165">
+        <f ca="1"/>
+        <v>0.17000000000000046</v>
+      </c>
+      <c r="C165">
+        <f ca="1"/>
+        <v>0.10107430661926262</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C166" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B166">
+        <f ca="1"/>
+        <v>0.17500000000000046</v>
+      </c>
+      <c r="C166">
+        <f ca="1"/>
+        <v>0.10512735793355656</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C167" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B167">
+        <f ca="1"/>
+        <v>0.18000000000000047</v>
+      </c>
+      <c r="C167">
+        <f ca="1"/>
+        <v>0.10923909327455524</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C168" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B168">
+        <f ca="1"/>
+        <v>0.18500000000000047</v>
+      </c>
+      <c r="C168">
+        <f ca="1"/>
+        <v>0.11340657867252318</v>
       </c>
     </row>
   </sheetData>
@@ -32455,7 +33415,7 @@
   <dimension ref="A2:Q168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -32717,7 +33677,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F21">
         <f ca="1">+NORMDIST(1,0,1,TRUE)</f>
@@ -32743,14 +33703,14 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <f ca="1">NOW()</f>
-        <v>44917.426609953705</v>
+        <v>44917.486056481481</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="11">
         <f ca="1">IF(B28&lt;&gt;"",NOW()-A25)</f>
-        <v>0</v>
+        <v>14.099405324071995</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -32780,7 +33740,7 @@
       </c>
       <c r="C28" s="27">
         <f ca="1"/>
-        <v>7.9422553112123942E-2</v>
+        <v>7.9396646629026249E-2</v>
       </c>
       <c r="E28" t="s">
         <v>44</v>
@@ -32877,14 +33837,14 @@
       </c>
       <c r="C31" s="7">
         <f ca="1"/>
-        <v>-2.745001210093005E-10</v>
+        <v>-2.1275556750007889E-10</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
       <c r="F31">
         <f ca="1">_xll.xBlackImplied(C9,C10,C28/F27,F28)</f>
-        <v>0.20000830487355828</v>
+        <v>0.19996651446917668</v>
       </c>
       <c r="I31" s="18">
         <v>2</v>
@@ -32916,11 +33876,11 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <f ca="1"/>
-        <v>0.11176614094301607</v>
+        <v>0.10929470848607388</v>
       </c>
       <c r="C32" s="7">
         <f ca="1"/>
-        <v>8.7615700468280281E-10</v>
+        <v>2.4751913621018495E-10</v>
       </c>
       <c r="I32" s="18">
         <v>5</v>
@@ -32952,11 +33912,11 @@
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <f ca="1"/>
-        <v>0.11687792576539652</v>
+        <v>0.1117661409430161</v>
       </c>
       <c r="C33" s="7">
         <f ca="1"/>
-        <v>2.3774419567476702E-9</v>
+        <v>7.4846469475446503E-10</v>
       </c>
       <c r="I33" s="18">
         <v>10</v>
@@ -32988,11 +33948,11 @@
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <f ca="1"/>
-        <v>0.12222350540121373</v>
+        <v>0.1142934587989299</v>
       </c>
       <c r="C34" s="7">
         <f ca="1"/>
-        <v>4.643715259267612E-9</v>
+        <v>1.324684641582679E-9</v>
       </c>
       <c r="I34" s="18">
         <v>20</v>
@@ -33024,11 +33984,11 @@
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <f ca="1"/>
-        <v>0.12781357279171801</v>
+        <v>0.11687792576539657</v>
       </c>
       <c r="C35" s="7">
         <f ca="1"/>
-        <v>8.3047291110721519E-9</v>
+        <v>2.0170360431096822E-9</v>
       </c>
       <c r="I35" s="18">
         <v>50</v>
@@ -33060,11 +34020,11 @@
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <f ca="1"/>
-        <v>0.13365930993517039</v>
+        <v>0.11952083412974331</v>
       </c>
       <c r="C36" s="7">
         <f ca="1"/>
-        <v>1.4358713481887335E-8</v>
+        <v>2.8752035249867821E-9</v>
       </c>
       <c r="I36" s="18">
         <v>100</v>
@@ -33098,11 +34058,11 @@
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <f ca="1"/>
-        <v>0.13977241025456674</v>
+        <v>0.12222350540121379</v>
       </c>
       <c r="C37" s="7">
         <f ca="1"/>
-        <v>2.4408573920315472E-8</v>
+        <v>3.9608436307118774E-9</v>
       </c>
       <c r="I37" s="18">
         <v>200</v>
@@ -33136,11 +34096,11 @@
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <f ca="1"/>
-        <v>0.14616510198838181</v>
+        <v>0.12498729097175036</v>
       </c>
       <c r="C38" s="7">
         <f ca="1"/>
-        <v>4.1027787786737843E-8</v>
+        <v>5.351468972315729E-9</v>
       </c>
       <c r="I38" s="18">
         <v>400</v>
@@ -33174,11 +34134,11 @@
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <f ca="1"/>
-        <v>0.15285017265112252</v>
+        <v>0.12781357279171809</v>
       </c>
       <c r="C39" s="7">
         <f ca="1"/>
-        <v>6.8324930593516233E-8</v>
+        <v>7.1452790949812728E-9</v>
       </c>
       <c r="I39" s="18">
         <v>800</v>
@@ -33212,11 +34172,11 @@
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <f ca="1"/>
-        <v>0.15984099461261983</v>
+        <v>0.13070376406090883</v>
       </c>
       <c r="C40" s="7">
         <f ca="1"/>
-        <v>1.1280798100164118E-7</v>
+        <v>9.467191191003861E-9</v>
       </c>
       <c r="I40" s="18">
         <v>1600</v>
@@ -33250,11 +34210,11 @@
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <f ca="1"/>
-        <v>0.16715155184722605</v>
+        <v>0.1336593099351705</v>
       </c>
       <c r="C41" s="7">
         <f ca="1"/>
-        <v>1.8469526256237394E-7</v>
+        <v>1.2476380446719051E-8</v>
       </c>
       <c r="I41" s="18">
         <v>3200</v>
@@ -33288,11 +34248,11 @@
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <f ca="1"/>
-        <v>0.17479646790642528</v>
+        <v>0.13668168824901511</v>
       </c>
       <c r="C42" s="7">
         <f ca="1"/>
-        <v>2.9988373260711838E-7</v>
+        <v>1.6375708862457828E-8</v>
       </c>
       <c r="I42" s="18">
         <v>6400</v>
@@ -33326,11 +34286,11 @@
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <f ca="1"/>
-        <v>0.18279103517081116</v>
+        <v>0.13977241025456685</v>
       </c>
       <c r="C43" s="7">
         <f ca="1"/>
-        <v>4.8287314510764863E-7</v>
+        <v>2.1423505151827196E-8</v>
       </c>
       <c r="I43" s="18">
         <v>10000</v>
@@ -33364,11 +34324,11 @@
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <f ca="1"/>
-        <v>0.19115124543994591</v>
+        <v>0.14293302137721964</v>
       </c>
       <c r="C44" s="7">
         <f ca="1"/>
-        <v>7.7106347590110147E-7</v>
+        <v>2.7948259472208867E-8</v>
       </c>
       <c r="I44" s="18">
         <v>100000</v>
@@ -33402,11 +34362,11 @@
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <f ca="1"/>
-        <v>0.19989382192129032</v>
+        <v>0.14616510198838195</v>
       </c>
       <c r="C45" s="7">
         <f ca="1"/>
-        <v>1.2210012361384603E-6</v>
+        <v>3.636691834240324E-8</v>
       </c>
       <c r="I45" s="18">
         <v>1000000</v>
@@ -33424,11 +34384,11 @@
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <f ca="1"/>
-        <v>0.20903625268219353</v>
+        <v>0.14947026819569548</v>
       </c>
       <c r="C46" s="7">
         <f ca="1"/>
-        <v>1.9173573266027237E-6</v>
+        <v>4.7207610696881094E-8</v>
       </c>
       <c r="I46" s="18">
         <v>10000000</v>
@@ -33455,11 +34415,11 @@
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <f ca="1"/>
-        <v>0.21859682563185742</v>
+        <v>0.15285017265112269</v>
       </c>
       <c r="C47" s="7">
         <f ca="1"/>
-        <v>2.9856850033112931E-6</v>
+        <v>6.1137809634502716E-8</v>
       </c>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
@@ -33468,11 +34428,11 @@
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48">
         <f ca="1"/>
-        <v>0.22859466510325144</v>
+        <v>0.15630650537730711</v>
       </c>
       <c r="C48">
         <f ca="1"/>
-        <v>4.6103414230564054E-6</v>
+        <v>7.8999140603348275E-8</v>
       </c>
       <c r="J48" s="17">
         <f ca="1">J46-$C$6</f>
@@ -33490,171 +34450,171 @@
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49">
         <f ca="1"/>
-        <v>0.23904977010815373</v>
+        <v>0.15984099461262</v>
       </c>
       <c r="C49">
         <f ca="1"/>
-        <v>7.0593691087218244E-6</v>
+        <v>1.0185029065595422E-7</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50">
         <f ca="1"/>
-        <v>0.24998305434184143</v>
+        <v>0.16345540767531541</v>
       </c>
       <c r="C50">
         <f ca="1"/>
-        <v>1.0718630878338588E-5</v>
+        <v>1.310197607498425E-7</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51">
         <f ca="1"/>
-        <v>0.26141638801745298</v>
+        <v>0.16715155184722624</v>
       </c>
       <c r="C51">
         <f ca="1"/>
-        <v>1.6138075023810217E-5</v>
+        <v>1.6817054022663492E-7</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52">
         <f ca="1"/>
-        <v>0.27337264161370489</v>
+        <v>0.17093127527744273</v>
       </c>
       <c r="C52">
         <f ca="1"/>
-        <v>2.4093671359784641E-5</v>
+        <v>2.1537917659469518E-7</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53">
         <f ca="1"/>
-        <v>0.28587573162347324</v>
+        <v>0.17479646790642553</v>
       </c>
       <c r="C53">
         <f ca="1"/>
-        <v>3.5669287717555225E-5</v>
+        <v>2.7523217222738234E-7</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54">
         <f ca="1"/>
-        <v>0.29895066839475209</v>
+        <v>0.17874906241101532</v>
       </c>
       <c r="C54">
         <f ca="1"/>
-        <v>5.2363541963303703E-5</v>
+        <v>3.5094317086458247E-7</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55">
         <f ca="1"/>
-        <v>0.31262360615968682</v>
+        <v>0.18279103517081147</v>
       </c>
       <c r="C55">
         <f ca="1"/>
-        <v>7.6227422054285442E-5</v>
+        <v>4.4649500975539053E-7</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56">
         <f ca="1"/>
-        <v>0.32692189535175709</v>
+        <v>0.18692440725640305</v>
       </c>
       <c r="C56">
         <f ca="1"/>
-        <v>1.1003915293984613E-4</v>
+        <v>5.6681141732068607E-7</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57">
         <f ca="1"/>
-        <v>0.34187413731576116</v>
+        <v>0.19115124543994624</v>
       </c>
       <c r="C57">
         <f ca="1"/>
-        <v>1.5752332145311951E-4</v>
+        <v>7.1796394119770957E-7</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58">
         <f ca="1"/>
-        <v>0.35751024152004002</v>
+        <v>0.19547366322859339</v>
       </c>
       <c r="C58">
         <f ca="1"/>
-        <v>2.2362154662770368E-4</v>
+        <v>9.0742060761249523E-7</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59">
         <f ca="1"/>
-        <v>0.37386148538538444</v>
+        <v>0.19989382192129068</v>
       </c>
       <c r="C59">
         <f ca="1"/>
-        <v>3.1482188461292833E-4</v>
+        <v>1.1443438505034586E-6</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60">
         <f ca="1"/>
-        <v>0.39096057685030305</v>
+        <v>0.20441393168947267</v>
       </c>
       <c r="C60">
         <f ca="1"/>
-        <v>4.3955355555690113E-4</v>
+        <v>1.4399464179028407E-6</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61">
         <f ca="1"/>
-        <v>0.40884171979780287</v>
+        <v>0.20903625268219395</v>
       </c>
       <c r="C61">
         <f ca="1"/>
-        <v>6.0865234434353437E-4</v>
+        <v>1.8079152736361327E-6</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62">
         <f ca="1"/>
-        <v>0.42754068247455729</v>
+        <v>0.21376309615625083</v>
       </c>
       <c r="C62">
         <f ca="1"/>
-        <v>8.3590003954497341E-4</v>
+        <v>2.2649149736166265E-6</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63">
         <f ca="1"/>
-        <v>0.44709486903932288</v>
+        <v>0.21859682563185789</v>
       </c>
       <c r="C63">
         <f ca="1"/>
-        <v>1.138638444915443E-3</v>
+        <v>2.8311836160352124E-6</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64">
         <f ca="1"/>
-        <v>0.46754339438372594</v>
+        <v>0.22353985807445731</v>
       </c>
       <c r="C64">
         <f ca="1"/>
-        <v>1.538454781056666E-3</v>
+        <v>3.531236250223749E-6</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65">
         <f ca="1"/>
-        <v>0.48892716237508477</v>
+        <v>0.22859466510325196</v>
       </c>
       <c r="C65">
         <f ca="1"/>
-        <v>2.0619307128901662E-3</v>
+        <v>4.3946925845560473E-6</v>
       </c>
       <c r="J65" t="s">
         <v>1</v>
@@ -33666,11 +34626,11 @@
     <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66">
         <f ca="1"/>
-        <v>0.51128894767777999</v>
+        <v>0.23376377422706648</v>
       </c>
       <c r="C66">
         <f ca="1"/>
-        <v>2.7414418959683167E-3</v>
+        <v>5.4572479615334544E-6</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
@@ -33703,18 +34663,18 @@
     <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67">
         <f ca="1"/>
-        <v>0.53467348131684234</v>
+        <v>0.23904977010815431</v>
       </c>
       <c r="C67">
         <f ca="1"/>
-        <v>3.6159890332766505E-3</v>
+        <v>6.7618088670861952E-6</v>
       </c>
       <c r="F67" t="s">
         <v>29</v>
       </c>
       <c r="G67" s="20">
         <f ca="1">F31</f>
-        <v>0.20000830487355828</v>
+        <v>0.19996651446917668</v>
       </c>
       <c r="I67" s="23">
         <v>1</v>
@@ -33742,11 +34702,11 @@
     <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68">
         <f ca="1"/>
-        <v>0.55912754015491428</v>
+        <v>0.24445529585458278</v>
       </c>
       <c r="C68">
         <f ca="1"/>
-        <v>4.7320352799273564E-3</v>
+        <v>8.3598167061474085E-6</v>
       </c>
       <c r="I68" s="23">
         <v>2</v>
@@ -33774,11 +34734,11 @@
     <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69">
         <f ca="1"/>
-        <v>0.5847000404615682</v>
+        <v>0.24998305434184209</v>
       </c>
       <c r="C69">
         <f ca="1"/>
-        <v>6.1443188332448162E-3</v>
+        <v>1.0312786198180877E-5</v>
       </c>
       <c r="I69" s="23">
         <v>5</v>
@@ -33806,11 +34766,11 @@
     <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70">
         <f ca="1"/>
-        <v>0.61144213576215256</v>
+        <v>0.2556358095643394</v>
       </c>
       <c r="C70">
         <f ca="1"/>
-        <v>7.9166041940710065E-3</v>
+        <v>1.2694087509684284E-5</v>
       </c>
       <c r="I70" s="23">
         <v>10</v>
@@ -33838,11 +34798,11 @@
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71">
         <f ca="1"/>
-        <v>0.63940731916189453</v>
+        <v>0.2614163880174537</v>
       </c>
       <c r="C71">
         <f ca="1"/>
-        <v>1.0122331434310364E-2</v>
+        <v>1.5591004124755476E-5</v>
       </c>
       <c r="I71" s="23">
         <v>20</v>
@@ -33870,11 +34830,11 @@
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72">
         <f ca="1"/>
-        <v>0.66865153034994296</v>
+        <v>0.26732768011084224</v>
       </c>
       <c r="C72">
         <f ca="1"/>
-        <v>1.2845120426290765E-2</v>
+        <v>1.9107101431729398E-5</v>
       </c>
       <c r="I72" s="23">
         <v>50</v>
@@ -33902,11 +34862,11 @@
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73">
         <f ca="1"/>
-        <v>0.69923326749739412</v>
+        <v>0.27337264161370567</v>
       </c>
       <c r="C73">
         <f ca="1"/>
-        <v>1.6179086917790145E-2</v>
+        <v>2.3364944038174736E-5</v>
       </c>
       <c r="I73" s="23">
         <v>100</v>
@@ -33940,11 +34900,11 @@
     <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74">
         <f ca="1"/>
-        <v>0.73121370427313503</v>
+        <v>0.27955429513273428</v>
       </c>
       <c r="C74">
         <f ca="1"/>
-        <v>2.0228930015484498E-2</v>
+        <v>2.85092028743718E-5</v>
       </c>
       <c r="I74" s="23">
         <v>200</v>
@@ -33978,11 +34938,11 @@
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75">
         <f ca="1"/>
-        <v>0.76465681221157333</v>
+        <v>0.28587573162347413</v>
       </c>
       <c r="C75">
         <f ca="1"/>
-        <v>2.5109756357611524E-2</v>
+        <v>3.4710196154046102E-5</v>
       </c>
       <c r="I75" s="23">
         <v>400</v>
@@ -34016,11 +34976,11 @@
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76">
         <f ca="1"/>
-        <v>0.79962948867703187</v>
+        <v>0.2923401119358694</v>
       </c>
       <c r="C76">
         <f ca="1"/>
-        <v>3.0946615092154989E-2</v>
+        <v>4.2167911168461785E-5</v>
       </c>
       <c r="I76" s="23">
         <v>800</v>
@@ -34054,11 +35014,11 @@
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77">
         <f ca="1"/>
-        <v>0.83620169068077754</v>
+        <v>0.29895066839475309</v>
       </c>
       <c r="C77">
         <f ca="1"/>
-        <v>3.7873729555052943E-2</v>
+        <v>5.1116556624095316E-5</v>
       </c>
       <c r="I77" s="23">
         <v>1600</v>
@@ -34092,11 +35052,11 @@
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78">
         <f ca="1"/>
-        <v>0.87444657481836452</v>
+        <v>0.30571070641607689</v>
       </c>
       <c r="C78">
         <f ca="1"/>
-        <v>4.6033425812984093E-2</v>
+        <v>6.1829697713245666E-5</v>
       </c>
       <c r="I78" s="23">
         <v>3200</v>
@@ -34130,11 +35090,11 @@
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79">
         <f ca="1"/>
-        <v>0.91444064360721267</v>
+        <v>0.31262360615968793</v>
       </c>
       <c r="C79">
         <f ca="1"/>
-        <v>5.5574774273254579E-2</v>
+        <v>7.4626028239544289E-5</v>
       </c>
       <c r="I79" s="23">
         <v>6400</v>
@@ -34168,11 +35128,11 @@
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80">
         <f ca="1"/>
-        <v>0.95626389851714477</v>
+        <v>0.31969282421947914</v>
       </c>
       <c r="C80">
         <f ca="1"/>
-        <v>6.6651977404450294E-2</v>
+        <v>8.9875835805465774E-5</v>
       </c>
       <c r="I80" s="23">
         <v>10000</v>
@@ -34206,11 +35166,11 @@
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81">
         <f ca="1"/>
-        <v>0.999999999999995</v>
+        <v>0.32692189535175831</v>
       </c>
       <c r="C81">
         <f ca="1"/>
-        <v>7.9422553112123942E-2</v>
+        <v>1.0800821719697927E-4</v>
       </c>
       <c r="I81" s="23">
         <v>100000</v>
@@ -34244,11 +35204,11 @@
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82">
         <f ca="1"/>
-        <v>1.0457364348384015</v>
+        <v>0.33431443424269969</v>
       </c>
       <c r="C82">
         <f ca="1"/>
-        <v>9.4045378239035193E-2</v>
+        <v>1.2951910155416498E-4</v>
       </c>
       <c r="I82" s="23">
         <v>1000000</v>
@@ -34266,11 +35226,11 @@
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83">
         <f ca="1"/>
-        <v>1.0935646911485359</v>
+        <v>0.34187413731576255</v>
       </c>
       <c r="C83">
         <f ca="1"/>
-        <v>0.110678668790165</v>
+        <v>1.5498013857252949E-4</v>
       </c>
       <c r="I83" s="18">
         <v>10000000</v>
@@ -34294,857 +35254,3055 @@
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84">
         <f ca="1"/>
-        <v>1.1435804413868333</v>
+        <v>0.34960478457997984</v>
       </c>
       <c r="C84">
         <f ca="1"/>
-        <v>0.1294779817305364</v>
+        <v>1.8504850771017202E-4</v>
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85">
         <f ca="1"/>
-        <v>1.1958837337267987</v>
+        <v>0.35751024152004152</v>
       </c>
       <c r="C85">
         <f ca="1"/>
-        <v>0.15059432672265777</v>
+        <v>2.2047770205119543E-4</v>
       </c>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86">
         <f ca="1"/>
-        <v>1.2505791921887051</v>
+        <v>0.36559446102911741</v>
       </c>
       <c r="C86">
         <f ca="1"/>
-        <v>0.17417247445077561</v>
+        <v>2.6212933696690398E-4</v>
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87">
         <f ca="1"/>
-        <v>1.3077762259225112</v>
+        <v>0.37386148538538605</v>
       </c>
       <c r="C87">
         <f ca="1"/>
-        <v>0.20034954111432773</v>
+        <v>3.1098602889845581E-4</v>
       </c>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88">
         <f ca="1"/>
-        <v>1.3675892480626337</v>
+        <v>0.38231544827325814</v>
       </c>
       <c r="C88">
         <f ca="1"/>
-        <v>0.22925391658708055</v>
+        <v>3.6816538334039615E-4</v>
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89">
         <f ca="1"/>
-        <v>1.4301379045923561</v>
+        <v>0.39096057685030478</v>
       </c>
       <c r="C89">
         <f ca="1"/>
-        <v>0.26100458737183369</v>
+        <v>4.3493512332810615E-4</v>
       </c>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90">
         <f ca="1"/>
-        <v>1.4955473136756801</v>
+        <v>0.39980119386092433</v>
       </c>
       <c r="C90">
         <f ca="1"/>
-        <v>0.29571088593307659</v>
+        <v>5.1272938033380489E-4</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91">
         <f ca="1"/>
-        <v>1.5639483159353622</v>
+        <v>0.4088417197978047</v>
       </c>
       <c r="C91">
         <f ca="1"/>
-        <v>0.33347267662642599</v>
+        <v>6.0316615838588517E-4</v>
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92">
         <f ca="1"/>
-        <v>1.6354777361777759</v>
+        <v>0.41808667511226177</v>
       </c>
       <c r="C92">
         <f ca="1"/>
-        <v>0.37438096677217664</v>
+        <v>7.0806596940080086E-4</v>
       </c>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93">
         <f ca="1"/>
-        <v>1.7102786570881359</v>
+        <v>0.42754068247455923</v>
       </c>
       <c r="C93">
         <f ca="1"/>
-        <v>0.41851891095620591</v>
+        <v>8.2947162314107219E-4</v>
       </c>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94">
         <f ca="1"/>
-        <v>1.7885007054435653</v>
+        <v>0.43720846908533995</v>
       </c>
       <c r="C94">
         <f ca="1"/>
-        <v>0.46596315877206462</v>
+        <v>9.6966913890745026E-4</v>
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95">
         <f ca="1"/>
-        <v>1.8703003514165295</v>
+        <v>0.44709486903932494</v>
       </c>
       <c r="C95">
         <f ca="1"/>
-        <v>0.51678548208264008</v>
+        <v>1.1312097280970549E-3</v>
       </c>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96">
         <f ca="1"/>
-        <v>1.9558412215673411</v>
+        <v>0.4572048257424613</v>
       </c>
       <c r="C96">
         <f ca="1"/>
-        <v>0.57105460827776433</v>
+        <v>1.3169327772144664E-3</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97">
         <f ca="1"/>
-        <v>2.045294426151826</v>
+        <v>0.46754339438372816</v>
       </c>
       <c r="C97">
         <f ca="1"/>
-        <v>0.62883818134018521</v>
+        <v>1.5299897399579231E-3</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98">
         <f ca="1"/>
-        <v>2.1388389013988758</v>
+        <v>0.47811574446283661</v>
       </c>
       <c r="C98">
         <f ca="1"/>
-        <v>0.69020477280257431</v>
+        <v>1.7738688248154296E-3</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99">
         <f ca="1"/>
-        <v>2.2366617674425551</v>
+        <v>0.48892716237508715</v>
       </c>
       <c r="C99">
         <f ca="1"/>
-        <v>0.75522586949695558</v>
+        <v>2.0524203414441803E-3</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100">
         <f ca="1"/>
-        <v>2.3389587026247471</v>
+        <v>0.49998305405467758</v>
       </c>
       <c r="C100">
         <f ca="1"/>
-        <v>0.8239777736591215</v>
+        <v>2.3698825452709411E-3</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101">
         <f ca="1"/>
-        <v>2.4459343349170686</v>
+        <v>0.51128894767778255</v>
       </c>
       <c r="C101">
         <f ca="1"/>
-        <v>0.89654336251572753</v>
+        <v>2.7309077955914472E-3</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102">
         <f ca="1"/>
-        <v>2.5578026512450251</v>
+        <v>0.52285049642675707</v>
       </c>
       <c r="C102">
         <f ca="1"/>
-        <v>0.97301366788169541</v>
+        <v>3.1405888183627562E-3</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103">
         <f ca="1"/>
-        <v>2.6747874255331974</v>
+        <v>0.53467348131684511</v>
       </c>
       <c r="C103">
         <f ca="1"/>
-        <v>1.0534892504354816</v>
+        <v>3.60448484131795E-3</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104">
         <f ca="1"/>
-        <v>2.7971226663276862</v>
+        <v>0.54676381408680819</v>
       </c>
       <c r="C104">
         <f ca="1"/>
-        <v>1.1380813571950286</v>
+        <v>4.1286473464722589E-3</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105">
         <f ca="1"/>
-        <v>2.9250530848912133</v>
+        <v>0.55912754015491728</v>
       </c>
       <c r="C105">
         <f ca="1"/>
-        <v>1.2269128634118458</v>
+        <v>4.7196451640504518E-3</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106">
         <f ca="1"/>
-        <v>3.0588345847072214</v>
+        <v>0.57177084164178837</v>
       </c>
       <c r="C106">
         <f ca="1"/>
-        <v>1.3201190109621426</v>
+        <v>5.3845886128899229E-3</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107">
         <f ca="1"/>
-        <v>3.1987347733721485</v>
+        <v>0.58470004046157142</v>
       </c>
       <c r="C107">
         <f ca="1"/>
-        <v>1.4178479639017132</v>
+        <v>6.13115237601837E-3</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108">
         <f ca="1"/>
-        <v>3.3450334978998297</v>
+        <v>0.59792160148303919</v>
       </c>
       <c r="C108">
         <f ca="1"/>
-        <v>1.5202612079599342</v>
+        <v>6.9675967869298437E-3</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109">
         <f ca="1"/>
-        <v>3.4980234045088134</v>
+        <v>0.61144213576215611</v>
       </c>
       <c r="C109">
         <f ca="1"/>
-        <v>1.6275338243880728</v>
+        <v>7.9027871926383459E-3</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110">
         <f ca="1"/>
-        <v>3.6580105240123526</v>
+        <v>0.62526840384774418</v>
       </c>
       <c r="C110">
         <f ca="1"/>
-        <v>1.7398546699385351</v>
+        <v>8.9462110544013054E-3</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111">
         <f ca="1"/>
-        <v>3.8253148839820499</v>
+        <v>0.6394073191618983</v>
       </c>
       <c r="C111">
         <f ca="1"/>
-        <v>1.8574264941585121</v>
+        <v>1.0107992446565513E-2</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112">
         <f ca="1"/>
-        <v>4.0002711489096825</v>
+        <v>0.65386595145684123</v>
       </c>
       <c r="C112">
         <f ca="1"/>
-        <v>1.9804660230407176</v>
+        <v>1.1398903618731939E-2</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113">
         <f ca="1"/>
-        <v>4.1832292896477492</v>
+        <v>0.66865153034994695</v>
       </c>
       <c r="C113">
         <f ca="1"/>
-        <v>2.1092040348268992</v>
+        <v>1.2830373296732173E-2</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114">
         <f ca="1"/>
-        <v>4.3745552834678385</v>
+        <v>0.68377144893870001</v>
       </c>
       <c r="C114">
         <f ca="1"/>
-        <v>2.2438854498398575</v>
+        <v>1.4414491414043724E-2</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115">
         <f ca="1"/>
-        <v>4.5746318461371738</v>
+        <v>0.69923326749739834</v>
       </c>
       <c r="C115">
         <f ca="1"/>
-        <v>2.3847694520187019</v>
+        <v>1.6164009987434919E-2</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116">
         <f ca="1"/>
-        <v>4.7838591974777271</v>
+        <v>0.71504471725744789</v>
       </c>
       <c r="C116">
         <f ca="1"/>
-        <v>2.532129655677875</v>
+        <v>1.8092339878909274E-2</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117">
         <f ca="1"/>
-        <v>5.0026558619392807</v>
+        <v>0.73121370427313948</v>
       </c>
       <c r="C117">
         <f ca="1"/>
-        <v>2.686254327154658</v>
+        <v>2.0213543220373886E-2</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118">
         <f ca="1"/>
-        <v>5.231459505787841</v>
+        <v>0.74774831337484038</v>
       </c>
       <c r="C118">
         <f ca="1"/>
-        <v>2.8474466676251278</v>
+        <v>2.2542321317689011E-2</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119">
         <f ca="1"/>
-        <v>5.4707278125840704</v>
+        <v>0.76465681221157811</v>
       </c>
       <c r="C119">
         <f ca="1"/>
-        <v>3.0160251605534625</v>
+        <v>2.5093997896590524E-2</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120">
         <f ca="1"/>
-        <v>5.7209393987029813</v>
+        <v>0.78194765538503741</v>
       </c>
       <c r="C120">
         <f ca="1"/>
-        <v>3.1923239850286285</v>
+        <v>2.7884497604263224E-2</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121">
         <f ca="1"/>
-        <v>5.9825947707262346</v>
+        <v>0.79962948867703698</v>
       </c>
       <c r="C121">
         <f ca="1"/>
-        <v>3.3766934946195484</v>
+        <v>3.0930319736156585E-2</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122">
         <f ca="1"/>
-        <v>6.2562173266221484</v>
+        <v>0.81771115337260036</v>
       </c>
       <c r="C122">
         <f ca="1"/>
-        <v>3.5695007602920441</v>
+        <v>3.4248507214766397E-2</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123">
         <f ca="1"/>
-        <v>6.5423544027161142</v>
+        <v>0.83620169068078298</v>
       </c>
       <c r="C123">
         <f ca="1"/>
-        <v>3.7711301753017645</v>
+        <v>3.7856610911516875E-2</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124">
         <f ca="1"/>
-        <v>6.8415783685457034</v>
+        <v>0.85511034625546489</v>
       </c>
       <c r="C124">
         <f ca="1"/>
-        <v>3.9819841197196038</v>
+        <v>4.1772649491384636E-2</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125">
         <f ca="1"/>
-        <v>7.1544877717905475</v>
+        <v>0.8744465748183704</v>
       </c>
       <c r="C125">
         <f ca="1"/>
-        <v>4.2024836822695537</v>
+        <v>4.601506494641517E-2</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126">
         <f ca="1"/>
-        <v>7.4817085355672246</v>
+        <v>0.89422004488662565</v>
       </c>
       <c r="C126">
         <f ca="1"/>
-        <v>4.4330694373777106</v>
+        <v>5.0602673982031554E-2</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127">
         <f ca="1"/>
-        <v>7.8238952104841468</v>
+        <v>0.91444064360721899</v>
       </c>
       <c r="C127">
         <f ca="1"/>
-        <v>4.6742022756666941</v>
+        <v>5.5554616991790824E-2</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128">
         <f ca="1"/>
-        <v>8.1817322839609776</v>
+        <v>0.93511848170078016</v>
       </c>
       <c r="C128">
         <f ca="1"/>
-        <v>4.9263642865117419</v>
+        <v>6.0890299188938082E-2</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129">
         <f ca="1"/>
-        <v>8.5559355494316485</v>
+        <v>0.95626389851715143</v>
       </c>
       <c r="C129">
         <f ca="1"/>
-        <v>5.1900596916395498</v>
+        <v>6.6629341643254736E-2</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130">
         <f ca="1"/>
-        <v>8.9472535381698375</v>
+        <v>0.97788746720527797</v>
       </c>
       <c r="C130">
         <f ca="1"/>
-        <v>5.4658158290372638</v>
+        <v>7.2791502300481606E-2</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131">
         <f ca="1"/>
-        <v>9.3564690166010465</v>
+        <v>1.0000000000000022</v>
       </c>
       <c r="C131">
         <f ca="1"/>
-        <v>5.754184186581714</v>
+        <v>7.9396646629026249E-2</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C132" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B132">
+        <f ca="1"/>
+        <v>1.022612553628407</v>
+      </c>
+      <c r="C132">
+        <f ca="1"/>
+        <v>8.646463592565018E-2</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C133" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B133">
+        <f ca="1"/>
+        <v>1.0457364348384093</v>
+      </c>
+      <c r="C133">
+        <f ca="1"/>
+        <v>9.4015327699914164E-2</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C134" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B134">
+        <f ca="1"/>
+        <v>1.0693832060523696</v>
+      </c>
+      <c r="C134">
+        <f ca="1"/>
+        <v>0.10206843962630271</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C135" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B135">
+        <f ca="1"/>
+        <v>1.0935646911485442</v>
+      </c>
+      <c r="C135">
+        <f ca="1"/>
+        <v>0.11064356123131897</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C136" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B136">
+        <f ca="1"/>
+        <v>1.1182929813732705</v>
+      </c>
+      <c r="C136">
+        <f ca="1"/>
+        <v>0.11976002809694063</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C137" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B137">
+        <f ca="1"/>
+        <v>1.1435804413868422</v>
+      </c>
+      <c r="C137">
+        <f ca="1"/>
+        <v>0.12943691475901037</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C138" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B138">
+        <f ca="1"/>
+        <v>1.1694397154460969</v>
+      </c>
+      <c r="C138">
+        <f ca="1"/>
+        <v>0.1396929454102078</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C139" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B139">
+        <f ca="1"/>
+        <v>1.1958837337268082</v>
+      </c>
+      <c r="C139">
+        <f ca="1"/>
+        <v>0.15054646243520073</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C140" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B140">
+        <f ca="1"/>
+        <v>1.2229257187890425</v>
+      </c>
+      <c r="C140">
+        <f ca="1"/>
+        <v>0.16201536992739626</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C141" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B141">
+        <f ca="1"/>
+        <v>1.2505791921887153</v>
+      </c>
+      <c r="C141">
+        <f ca="1"/>
+        <v>0.17411709512689327</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C142" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B142">
+        <f ca="1"/>
+        <v>1.2788579812386498</v>
+      </c>
+      <c r="C142">
+        <f ca="1"/>
+        <v>0.18686855070716923</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C143" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B143">
+        <f ca="1"/>
+        <v>1.3077762259225223</v>
+      </c>
+      <c r="C143">
+        <f ca="1"/>
+        <v>0.2002861038466382</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C144" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B144">
+        <f ca="1"/>
+        <v>1.337348385965148</v>
+      </c>
+      <c r="C144">
+        <f ca="1"/>
+        <v>0.21438555145648719</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C145" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B145">
+        <f ca="1"/>
+        <v>1.3675892480626455</v>
+      </c>
+      <c r="C145">
+        <f ca="1"/>
+        <v>0.22918210177707143</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C146" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B146">
+        <f ca="1"/>
+        <v>1.3985139332760919</v>
+      </c>
+      <c r="C146">
+        <f ca="1"/>
+        <v>0.24469036267598487</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C147" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B147">
+        <f ca="1"/>
+        <v>1.4301379045923688</v>
+      </c>
+      <c r="C147">
+        <f ca="1"/>
+        <v>0.26092433675168991</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C148" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B148">
+        <f ca="1"/>
+        <v>1.462476974655978</v>
+      </c>
+      <c r="C148">
+        <f ca="1"/>
+        <v>0.27789742328278888</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C149" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B149">
+        <f ca="1"/>
+        <v>1.4955473136756934</v>
+      </c>
+      <c r="C149">
+        <f ca="1"/>
+        <v>0.29562242698724306</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C150" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B150">
+        <f ca="1"/>
+        <v>1.5293654575100017</v>
+      </c>
+      <c r="C150">
+        <f ca="1"/>
+        <v>0.31411157346804452</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B151">
+        <f ca="1"/>
+        <v>1.5639483159353764</v>
+      </c>
+      <c r="C151">
+        <f ca="1"/>
+        <v>0.33337653114054994</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B152">
+        <f ca="1"/>
+        <v>1.5993131811015184</v>
+      </c>
+      <c r="C152">
+        <f ca="1"/>
+        <v>0.35342843936066937</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B153">
+        <f ca="1"/>
+        <v>1.635477736177791</v>
+      </c>
+      <c r="C153">
+        <f ca="1"/>
+        <v>0.37427794240211282</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B154">
+        <f ca="1"/>
+        <v>1.6724600641951732</v>
+      </c>
+      <c r="C154">
+        <f ca="1"/>
+        <v>0.3959352288665357</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B155">
+        <f ca="1"/>
+        <v>1.7102786570881519</v>
+      </c>
+      <c r="C155">
+        <f ca="1"/>
+        <v>0.41841007605383035</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C156" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B156">
+        <f ca="1"/>
+        <v>1.7489524249410737</v>
+      </c>
+      <c r="C156">
+        <f ca="1"/>
+        <v>0.44171189877173744</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C157" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B157">
+        <f ca="1"/>
+        <v>1.7885007054435822</v>
+      </c>
+      <c r="C157">
+        <f ca="1"/>
+        <v>0.46584980202500481</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C158" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B158">
+        <f ca="1"/>
+        <v>1.828943273559865</v>
+      </c>
+      <c r="C158">
+        <f ca="1"/>
+        <v>0.49083263699494778</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C159" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B159">
+        <f ca="1"/>
+        <v>1.8703003514165475</v>
+      </c>
+      <c r="C159">
+        <f ca="1"/>
+        <v>0.51666905970068211</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C160" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B160">
+        <f ca="1"/>
+        <v>1.9125926184141784</v>
+      </c>
+      <c r="C160">
+        <f ca="1"/>
+        <v>0.54336759172355209</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C161" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B161">
+        <f ca="1"/>
+        <v>1.95584122156736</v>
+      </c>
+      <c r="C161">
+        <f ca="1"/>
+        <v>0.57093668237618034</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C162" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B162">
+        <f ca="1"/>
+        <v>2.0000677860786964</v>
+      </c>
+      <c r="C162">
+        <f ca="1"/>
+        <v>0.59938477170677129</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C163" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B163">
+        <f ca="1"/>
+        <v>2.0452944261518455</v>
+      </c>
+      <c r="C163">
+        <f ca="1"/>
+        <v>0.62872035374729518</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C164" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B164">
+        <f ca="1"/>
+        <v>2.0915437560490813</v>
+      </c>
+      <c r="C164">
+        <f ca="1"/>
+        <v>0.65895203944026259</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C165" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B165">
+        <f ca="1"/>
+        <v>2.1388389013988962</v>
+      </c>
+      <c r="C165">
+        <f ca="1"/>
+        <v>0.69008861871219862</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C166" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B166">
+        <f ca="1"/>
+        <v>2.1872035107592969</v>
+      </c>
+      <c r="C166">
+        <f ca="1"/>
+        <v>0.72213912120169077</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C167" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B167">
+        <f ca="1"/>
+        <v>2.2366617674425768</v>
+      </c>
+      <c r="C167">
+        <f ca="1"/>
+        <v>0.75511287519504111</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C168" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="B168">
+        <f ca="1"/>
+        <v>2.2872384016074747</v>
+      </c>
+      <c r="C168">
+        <f ca="1"/>
+        <v>0.78901956437204346</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <f ca="1">C3-C8*C6*SQRT(C2)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11">
+        <f ca="1">SUMPRODUCT(L22:L72)</f>
+        <v>0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <f ca="1">C3+C8*C6*SQRT(C2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12">
+        <f ca="1">SUMPRODUCT(B22:B72,L22:L72)</f>
+        <v>1.8042267644637587E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <f ca="1">(C12-C11)/C9</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14">
+        <f ca="1">H47</f>
+        <v>4.2074444683141018E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15">
+        <f ca="1">_xll.xBachelierImplied(C2,F15,I14/I11,I12)</f>
+        <v>9.9072278257604576E-2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f ca="1">C15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f ca="1">C16</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17">
+        <f ca="1">EXP(-C4*C2)</f>
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <f ca="1">C19</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="2">
+        <f ca="1">SUMPRODUCT(L22:L72,F22:F72)</f>
+        <v>4.2074444683141018E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f ca="1">C11</f>
+        <v>-0.5</v>
+      </c>
+      <c r="C22">
+        <f ca="1">$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f ca="1">$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f ca="1">$C$6</f>
+        <v>0.1</v>
+      </c>
+      <c r="F22">
+        <f ca="1">MAX(0,B22-$F$15)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="array" aca="1" ref="H22:H72" ca="1">IF(I19&gt;0,_xll.xAde(C2,B22:B72,C22:C72,D22:D72,E22:E72,F22:F72,C15:C19),_xll.xFd1d(C2,B22:B72,C22:C72,D22:D72,E22:E72,F22:F72,C15:C19))</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H22/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f ca="1">IF(ABS(B22-$C$3)&lt;0.0000000001,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="array" aca="1" ref="L22:L72" ca="1">IF(I19&gt;0,_xll.xAde($C$2,B22:B72,C22:C72,D22:D72,E22:E72,K22:K72,L15:L19),_xll.xFd1d($C$2,B22:B72,C22:C72,D22:D72,E22:E72,K22:K72,L15:L19))</f>
+        <v>6.4107519555457315E-6</v>
+      </c>
+      <c r="N22">
+        <f ca="1">SUM(L22:L72)</f>
+        <v>0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" ref="B23:B72" ca="1" si="0">B22+$C$13</f>
+        <v>-0.48</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:C72" ca="1" si="1">$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D72" ca="1" si="2">$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E72" ca="1" si="3">$C$6</f>
+        <v>0.1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F72" ca="1" si="4">MAX(0,B23-$F$15)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f ca="1"/>
+        <v>1.5777139841485313E-7</v>
+      </c>
+      <c r="I23">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H23/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K72" ca="1" si="5">IF(ABS(B23-$C$3)&lt;0.0000000001,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f ca="1"/>
+        <v>2.8190054797883341E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.45999999999999996</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f ca="1"/>
+        <v>3.8443344668151357E-7</v>
+      </c>
+      <c r="I24">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H24/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f ca="1"/>
+        <v>6.8046775350601484E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.43999999999999995</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f ca="1"/>
+        <v>7.7711544953946361E-7</v>
+      </c>
+      <c r="I25">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H25/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f ca="1"/>
+        <v>1.3566000574061501E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.41999999999999993</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f ca="1"/>
+        <v>1.4999796072361289E-6</v>
+      </c>
+      <c r="I26">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H26/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f ca="1"/>
+        <v>2.5742124333696047E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f ca="1"/>
+        <v>2.8475168425965489E-6</v>
+      </c>
+      <c r="I27">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H27/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f ca="1"/>
+        <v>4.791717426616474E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.37999999999999989</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f ca="1"/>
+        <v>5.3538615427489213E-6</v>
+      </c>
+      <c r="I28">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H28/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f ca="1"/>
+        <v>8.8117594290314927E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.35999999999999988</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f ca="1"/>
+        <v>9.9829978422783354E-6</v>
+      </c>
+      <c r="I29">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H29/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f ca="1"/>
+        <v>1.6026073477897176E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.33999999999999986</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f ca="1"/>
+        <v>1.8456227021188145E-5</v>
+      </c>
+      <c r="I30">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H30/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f ca="1"/>
+        <v>2.8806456680216254E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.31999999999999984</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f ca="1"/>
+        <v>3.3805618950488782E-5</v>
+      </c>
+      <c r="I31">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H31/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f ca="1"/>
+        <v>5.1105319780145883E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f ca="1"/>
+        <v>6.1287186472320588E-5</v>
+      </c>
+      <c r="I32">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H32/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f ca="1"/>
+        <v>8.9328280103457972E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.2799999999999998</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f ca="1"/>
+        <v>1.0984302184848016E-4</v>
+      </c>
+      <c r="I33">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H33/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f ca="1"/>
+        <v>1.5350088452840212E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.25999999999999979</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f ca="1"/>
+        <v>1.9435515321984277E-4</v>
+      </c>
+      <c r="I34">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H34/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f ca="1"/>
+        <v>2.5862345162289157E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.2399999999999998</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f ca="1"/>
+        <v>3.3895163990797268E-4</v>
+      </c>
+      <c r="I35">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H35/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f ca="1"/>
+        <v>4.2581684456865325E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.21999999999999981</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f ca="1"/>
+        <v>5.8153685824462848E-4</v>
+      </c>
+      <c r="I36">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H36/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f ca="1"/>
+        <v>6.8232414591456268E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.19999999999999982</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f ca="1"/>
+        <v>9.7940311912963628E-4</v>
+      </c>
+      <c r="I37">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H37/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f ca="1"/>
+        <v>1.0586484365381173E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.17999999999999983</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f ca="1"/>
+        <v>1.6150879201557852E-3</v>
+      </c>
+      <c r="I38">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H38/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f ca="1"/>
+        <v>1.5804255048325597E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.15999999999999984</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f ca="1"/>
+        <v>2.6005041551506736E-3</v>
+      </c>
+      <c r="I39">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H39/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f ca="1"/>
+        <v>2.253352170659292E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.13999999999999985</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f ca="1"/>
+        <v>4.0761650838000698E-3</v>
+      </c>
+      <c r="I40">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H40/$I$11,$I$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f ca="1"/>
+        <v>3.0448373639822626E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.11999999999999984</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f ca="1"/>
+        <v>6.2026297127792847E-3</v>
+      </c>
+      <c r="I41">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H41/$I$11,$I$12)</f>
+        <v>7.7153833181700087E-3</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f ca="1"/>
+        <v>3.8815619160710746E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9.9999999999999839E-2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f ca="1"/>
+        <v>9.1468434332972609E-3</v>
+      </c>
+      <c r="I42">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H42/$I$11,$I$12)</f>
+        <v>1.5880474111408072E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f ca="1"/>
+        <v>4.7102960832646805E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.9999999999999835E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f ca="1"/>
+        <v>1.3081482809268095E-2</v>
+      </c>
+      <c r="I43">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H43/$I$11,$I$12)</f>
+        <v>2.6045380964522066E-2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f ca="1"/>
+        <v>5.6776248596095896E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9999999999999831E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f ca="1"/>
+        <v>1.8231558977552256E-2</v>
+      </c>
+      <c r="I44">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H44/$I$11,$I$12)</f>
+        <v>3.9114026558854376E-2</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f ca="1"/>
+        <v>7.2758612676078874E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.9999999999999827E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f ca="1"/>
+        <v>2.49262747253843E-2</v>
+      </c>
+      <c r="I45">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H45/$I$11,$I$12)</f>
+        <v>5.5991233325401887E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f ca="1"/>
+        <v>9.0652077882168253E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.9999999999999827E-2</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f ca="1"/>
+        <v>3.3002913169334389E-2</v>
+      </c>
+      <c r="I46">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H46/$I$11,$I$12)</f>
+        <v>7.6295686960373518E-2</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f ca="1"/>
+        <v>4.4283055774956698E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7347234759768071E-16</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0000000000001736E-3</v>
+      </c>
+      <c r="H47" s="1">
+        <f ca="1"/>
+        <v>4.2074444683141018E-2</v>
+      </c>
+      <c r="I47">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H47/$I$11,$I$12)</f>
+        <v>9.9072278257604576E-2</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <f ca="1"/>
+        <v>0.18569369723896881</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0000000000000174E-2</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.5000000000000175E-2</v>
+      </c>
+      <c r="H48">
+        <f ca="1"/>
+        <v>5.3953523183419616E-2</v>
+      </c>
+      <c r="I48">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H48/$I$11,$I$12)</f>
+        <v>0.12887787715958232</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f ca="1"/>
+        <v>4.4283055774956698E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0000000000000174E-2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5000000000000172E-2</v>
+      </c>
+      <c r="H49">
+        <f ca="1"/>
+        <v>6.6352286656772258E-2</v>
+      </c>
+      <c r="I49">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H49/$I$11,$I$12)</f>
+        <v>0.15997581668375513</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f ca="1"/>
+        <v>9.0652077882168225E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.0000000000000178E-2</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.5000000000000183E-2</v>
+      </c>
+      <c r="H50">
+        <f ca="1"/>
+        <v>8.0474624361739786E-2</v>
+      </c>
+      <c r="I50">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H50/$I$11,$I$12)</f>
+        <v>0.19538942681722093</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f ca="1"/>
+        <v>7.2758612676078901E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.0000000000000182E-2</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.5000000000000187E-2</v>
+      </c>
+      <c r="H51">
+        <f ca="1"/>
+        <v>9.5972222499833115E-2</v>
+      </c>
+      <c r="I51">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H51/$I$11,$I$12)</f>
+        <v>0.23424675530452588</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f ca="1"/>
+        <v>5.6776248596095868E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10000000000000019</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.10500000000000019</v>
+      </c>
+      <c r="H52">
+        <f ca="1"/>
+        <v>0.11255697917103966</v>
+      </c>
+      <c r="I52">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H52/$I$11,$I$12)</f>
+        <v>0.27582661872780212</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f ca="1"/>
+        <v>4.7102960832646798E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12000000000000019</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12500000000000019</v>
+      </c>
+      <c r="H53">
+        <f ca="1"/>
+        <v>0.13004235835055675</v>
+      </c>
+      <c r="I53">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H53/$I$11,$I$12)</f>
+        <v>0.31966217867032004</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f ca="1"/>
+        <v>3.8815619160710739E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14000000000000018</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.14500000000000018</v>
+      </c>
+      <c r="H54">
+        <f ca="1"/>
+        <v>0.14826221368571882</v>
+      </c>
+      <c r="I54">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H54/$I$11,$I$12)</f>
+        <v>0.36533747179058945</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f ca="1"/>
+        <v>3.0448373639822609E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16000000000000017</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16500000000000017</v>
+      </c>
+      <c r="H55">
+        <f ca="1"/>
+        <v>0.16705146223408224</v>
+      </c>
+      <c r="I55">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H55/$I$11,$I$12)</f>
+        <v>0.41243904072985593</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f ca="1"/>
+        <v>2.2533521706592934E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18000000000000016</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.18500000000000016</v>
+      </c>
+      <c r="H56">
+        <f ca="1"/>
+        <v>0.18625773488342967</v>
+      </c>
+      <c r="I56">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H56/$I$11,$I$12)</f>
+        <v>0.46058519482014559</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f ca="1"/>
+        <v>1.5804255048325604E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20000000000000015</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.20500000000000015</v>
+      </c>
+      <c r="H57">
+        <f ca="1"/>
+        <v>0.20575400378061798</v>
+      </c>
+      <c r="I57">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H57/$I$11,$I$12)</f>
+        <v>0.50945769711150124</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f ca="1"/>
+        <v>1.0586484365381179E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22000000000000014</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.22500000000000014</v>
+      </c>
+      <c r="H58">
+        <f ca="1"/>
+        <v>0.2254431861511639</v>
+      </c>
+      <c r="I58">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H58/$I$11,$I$12)</f>
+        <v>0.5588133253625579</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f ca="1"/>
+        <v>6.8232414591456337E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24000000000000013</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.24500000000000013</v>
+      </c>
+      <c r="H59">
+        <f ca="1"/>
+        <v>0.24525600798699121</v>
+      </c>
+      <c r="I59">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H59/$I$11,$I$12)</f>
+        <v>0.60847853053034773</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f ca="1"/>
+        <v>4.258168445686536E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.26500000000000012</v>
+      </c>
+      <c r="H60">
+        <f ca="1"/>
+        <v>0.26514563352441745</v>
+      </c>
+      <c r="I60">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H60/$I$11,$I$12)</f>
+        <v>0.65833598402662274</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f ca="1"/>
+        <v>2.586234516228917E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.28500000000000014</v>
+      </c>
+      <c r="H61">
+        <f ca="1"/>
+        <v>0.28508172762846884</v>
+      </c>
+      <c r="I61">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H61/$I$11,$I$12)</f>
+        <v>0.70830970079326527</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f ca="1"/>
+        <v>1.5350088452840214E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.30500000000000016</v>
+      </c>
+      <c r="H62">
+        <f ca="1"/>
+        <v>0.30504531328846973</v>
+      </c>
+      <c r="I62">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H62/$I$11,$I$12)</f>
+        <v>0.75835215359827601</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f ca="1"/>
+        <v>8.9328280103458016E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.32500000000000018</v>
+      </c>
+      <c r="H63">
+        <f ca="1"/>
+        <v>0.32502485347486276</v>
+      </c>
+      <c r="I63">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H63/$I$11,$I$12)</f>
+        <v>0.80843445505735145</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f ca="1"/>
+        <v>5.1105319780145905E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.3450000000000002</v>
+      </c>
+      <c r="H64">
+        <f ca="1"/>
+        <v>0.34501349981843649</v>
+      </c>
+      <c r="I64">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H64/$I$11,$I$12)</f>
+        <v>0.85853946351858268</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f ca="1"/>
+        <v>2.880645668021627E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.36500000000000021</v>
+      </c>
+      <c r="H65">
+        <f ca="1"/>
+        <v>0.3650072685059268</v>
+      </c>
+      <c r="I65">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H65/$I$11,$I$12)</f>
+        <v>0.90865721246812614</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f ca="1"/>
+        <v>1.6026073477897178E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="H66">
+        <f ca="1"/>
+        <v>0.38500388183338652</v>
+      </c>
+      <c r="I66">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H66/$I$11,$I$12)</f>
+        <v>0.95878200801483449</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f ca="1"/>
+        <v>8.8117594290314981E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.40500000000000025</v>
+      </c>
+      <c r="H67">
+        <f ca="1"/>
+        <v>0.40500205678662082</v>
+      </c>
+      <c r="I67">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H67/$I$11,$I$12)</f>
+        <v>1.0089106465631856</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f ca="1"/>
+        <v>4.7917174266164767E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.42500000000000027</v>
+      </c>
+      <c r="H68">
+        <f ca="1"/>
+        <v>0.42500107974621143</v>
+      </c>
+      <c r="I68">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H68/$I$11,$I$12)</f>
+        <v>1.0590413494484756</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f ca="1"/>
+        <v>2.5742124333696068E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.44500000000000028</v>
+      </c>
+      <c r="H69">
+        <f ca="1"/>
+        <v>0.44500055771232855</v>
+      </c>
+      <c r="I69">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H69/$I$11,$I$12)</f>
+        <v>1.1091731398645501</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f ca="1"/>
+        <v>1.3566000574061508E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.4650000000000003</v>
+      </c>
+      <c r="H70">
+        <f ca="1"/>
+        <v>0.46500027521031728</v>
+      </c>
+      <c r="I70">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H70/$I$11,$I$12)</f>
+        <v>1.1593054845658533</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f ca="1"/>
+        <v>6.8046775350601493E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.48500000000000032</v>
+      </c>
+      <c r="H71">
+        <f ca="1"/>
+        <v>0.48500011275370775</v>
+      </c>
+      <c r="I71">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H71/$I$11,$I$12)</f>
+        <v>1.2094380897776649</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f ca="1"/>
+        <v>2.8190054797883349E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.50500000000000034</v>
+      </c>
+      <c r="H72">
+        <f ca="1"/>
+        <v>0.50500000000000034</v>
+      </c>
+      <c r="I72">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H72/$I$11,$I$12)</f>
+        <v>1.2595707839995969</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f ca="1"/>
+        <v>6.4107519555457348E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Week 4/fun with fd.xlsx
+++ b/Week 4/fun with fd.xlsx
@@ -8927,157 +8927,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>6.4107519555457315E-6</c:v>
+                  <c:v>1.7278102615932309E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8190054797883341E-6</c:v>
+                  <c:v>-7.921361124073871E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8046775350601484E-6</c:v>
+                  <c:v>-3.9978344781377365E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3566000574061501E-5</c:v>
+                  <c:v>6.5941959825672981E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5742124333696047E-5</c:v>
+                  <c:v>7.8477393800617501E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.791717426616474E-5</c:v>
+                  <c:v>9.2625320229683221E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8117594290314927E-5</c:v>
+                  <c:v>1.0867886162240453E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6026073477897176E-4</c:v>
+                  <c:v>1.2697013822468468E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8806456680216254E-4</c:v>
+                  <c:v>1.4787710841472059E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1105319780145883E-4</c:v>
+                  <c:v>1.7183134243439373E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9328280103457972E-4</c:v>
+                  <c:v>1.9932688849199683E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5350088452840212E-3</c:v>
+                  <c:v>2.3093041237605902E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5862345162289157E-3</c:v>
+                  <c:v>2.6729281750103775E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2581684456865325E-3</c:v>
+                  <c:v>3.0916258228110044E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.8232414591456268E-3</c:v>
+                  <c:v>3.5740108650059201E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0586484365381173E-2</c:v>
+                  <c:v>4.1300023861723933E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5804255048325597E-2</c:v>
+                  <c:v>4.7710276250483279E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.253352170659292E-2</c:v>
+                  <c:v>5.510255559520269E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0448373639822626E-2</c:v>
+                  <c:v>6.362865953616504E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8815619160710746E-2</c:v>
+                  <c:v>7.34635932787428E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7102960832646805E-2</c:v>
+                  <c:v>8.480914141391193E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.6776248596095896E-2</c:v>
+                  <c:v>9.7897984273961416E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.2758612676078874E-2</c:v>
+                  <c:v>1.1299844223382432E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.0652077882168253E-2</c:v>
+                  <c:v>0.19883271973071351</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.4283055774956698E-3</c:v>
+                  <c:v>2.3252351203893351E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.18569369723896881</c:v>
+                  <c:v>0.38659959058048249</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.4283055774956698E-3</c:v>
+                  <c:v>2.3252351203893351E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.0652077882168225E-2</c:v>
+                  <c:v>0.19883271973071348</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.2758612676078901E-2</c:v>
+                  <c:v>1.1299844223382434E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.6776248596095868E-2</c:v>
+                  <c:v>9.7897984273960861E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.7102960832646798E-2</c:v>
+                  <c:v>8.480914141391167E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.8815619160710739E-2</c:v>
+                  <c:v>7.3463593278743954E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0448373639822609E-2</c:v>
+                  <c:v>6.3628659536165231E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.2533521706592934E-2</c:v>
+                  <c:v>5.5102555595202187E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5804255048325604E-2</c:v>
+                  <c:v>4.7710276250483487E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0586484365381179E-2</c:v>
+                  <c:v>4.1300023861724081E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.8232414591456337E-3</c:v>
+                  <c:v>3.574010865005927E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.258168445686536E-3</c:v>
+                  <c:v>3.0916258228110248E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.586234516228917E-3</c:v>
+                  <c:v>2.6729281750104156E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5350088452840214E-3</c:v>
+                  <c:v>2.3093041237605958E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.9328280103458016E-4</c:v>
+                  <c:v>1.9932688849199575E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.1105319780145905E-4</c:v>
+                  <c:v>1.7183134243439304E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.880645668021627E-4</c:v>
+                  <c:v>1.4787710841472129E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.6026073477897178E-4</c:v>
+                  <c:v>1.2697013822468523E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.8117594290314981E-5</c:v>
+                  <c:v>1.0867886162240503E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.7917174266164767E-5</c:v>
+                  <c:v>9.2625320229683351E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.5742124333696068E-5</c:v>
+                  <c:v>7.8477393800617805E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3566000574061508E-5</c:v>
+                  <c:v>6.5941959825672981E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.8046775350601493E-6</c:v>
+                  <c:v>-3.9978344781377391E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.8190054797883349E-6</c:v>
+                  <c:v>-7.9213611240738814E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.4107519555457348E-6</c:v>
+                  <c:v>1.7278102615932333E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -36112,8 +36112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -36190,7 +36190,7 @@
       </c>
       <c r="I11">
         <f ca="1">SUMPRODUCT(L22:L72)</f>
-        <v>0.99999999999999967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -36206,7 +36206,7 @@
       </c>
       <c r="I12">
         <f ca="1">SUMPRODUCT(B22:B72,L22:L72)</f>
-        <v>1.8042267644637587E-16</v>
+        <v>2.0296264668928643E-16</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -36224,7 +36224,7 @@
       </c>
       <c r="I14">
         <f ca="1">H47</f>
-        <v>4.2074444683141018E-2</v>
+        <v>2.7911490859772507E-2</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -36232,7 +36232,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -36245,14 +36245,14 @@
       </c>
       <c r="I15">
         <f ca="1">_xll.xBachelierImplied(C2,F15,I14/I11,I12)</f>
-        <v>9.9072278257604576E-2</v>
+        <v>6.3500414020619775E-2</v>
       </c>
       <c r="K15" t="s">
         <v>0</v>
       </c>
       <c r="L15">
         <f ca="1">C15</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -36316,7 +36316,7 @@
         <v>84</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
         <v>4</v>
@@ -36332,7 +36332,7 @@
       </c>
       <c r="L20" s="2">
         <f ca="1">SUMPRODUCT(L22:L72,F22:F72)</f>
-        <v>4.2074444683141018E-2</v>
+        <v>2.7911490859772514E-2</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -36393,11 +36393,11 @@
       </c>
       <c r="L22">
         <f t="array" aca="1" ref="L22:L72" ca="1">IF(I19&gt;0,_xll.xAde($C$2,B22:B72,C22:C72,D22:D72,E22:E72,K22:K72,L15:L19),_xll.xFd1d($C$2,B22:B72,C22:C72,D22:D72,E22:E72,K22:K72,L15:L19))</f>
-        <v>6.4107519555457315E-6</v>
+        <v>1.7278102615932309E-2</v>
       </c>
       <c r="N22">
         <f ca="1">SUM(L22:L72)</f>
-        <v>0.99999999999999967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
@@ -36423,7 +36423,7 @@
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>1.5777139841485313E-7</v>
+        <v>3.5871548749288071E-4</v>
       </c>
       <c r="I23">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H23/$I$11,$I$12)</f>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>2.8190054797883341E-6</v>
+        <v>-7.921361124073871E-3</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -36461,7 +36461,7 @@
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>3.8443344668151357E-7</v>
+        <v>5.5322866301657514E-4</v>
       </c>
       <c r="I24">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H24/$I$11,$I$12)</f>
@@ -36473,7 +36473,7 @@
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>6.8046775350601484E-6</v>
+        <v>-3.9978344781377365E-3</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -36499,7 +36499,7 @@
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>7.7711544953946361E-7</v>
+        <v>6.6456975379389021E-4</v>
       </c>
       <c r="I25">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H25/$I$11,$I$12)</f>
@@ -36511,7 +36511,7 @@
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>1.3566000574061501E-5</v>
+        <v>6.5941959825672981E-4</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -36537,7 +36537,7 @@
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>1.4999796072361289E-6</v>
+        <v>7.8960690419765337E-4</v>
       </c>
       <c r="I26">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H26/$I$11,$I$12)</f>
@@ -36549,7 +36549,7 @@
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>2.5742124333696047E-5</v>
+        <v>7.8477393800617501E-4</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -36575,7 +36575,7 @@
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>2.8475168425965489E-6</v>
+        <v>9.3094430561188591E-4</v>
       </c>
       <c r="I27">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H27/$I$11,$I$12)</f>
@@ -36587,7 +36587,7 @@
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>4.791717426616474E-5</v>
+        <v>9.2625320229683221E-4</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -36613,7 +36613,7 @@
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>5.3538615427489213E-6</v>
+        <v>1.0915210392298245E-3</v>
       </c>
       <c r="I28">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H28/$I$11,$I$12)</f>
@@ -36625,7 +36625,7 @@
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>8.8117594290314927E-5</v>
+        <v>1.0867886162240453E-3</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -36651,7 +36651,7 @@
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>9.9829978422783354E-6</v>
+        <v>1.274671964156504E-3</v>
       </c>
       <c r="I29">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H29/$I$11,$I$12)</f>
@@ -36663,7 +36663,7 @@
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>1.6026073477897176E-4</v>
+        <v>1.2697013822468468E-3</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -36689,7 +36689,7 @@
       </c>
       <c r="H30">
         <f ca="1"/>
-        <v>1.8456227021188145E-5</v>
+        <v>1.484196704019804E-3</v>
       </c>
       <c r="I30">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H30/$I$11,$I$12)</f>
@@ -36701,7 +36701,7 @@
       </c>
       <c r="L30">
         <f ca="1"/>
-        <v>2.8806456680216254E-4</v>
+        <v>1.4787710841472059E-3</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -36727,7 +36727,7 @@
       </c>
       <c r="H31">
         <f ca="1"/>
-        <v>3.3805618950488782E-5</v>
+        <v>1.7244381528089933E-3</v>
       </c>
       <c r="I31">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H31/$I$11,$I$12)</f>
@@ -36739,7 +36739,7 @@
       </c>
       <c r="L31">
         <f ca="1"/>
-        <v>5.1105319780145883E-4</v>
+        <v>1.7183134243439373E-3</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -36765,7 +36765,7 @@
       </c>
       <c r="H32">
         <f ca="1"/>
-        <v>6.1287186472320588E-5</v>
+        <v>2.000372114460264E-3</v>
       </c>
       <c r="I32">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H32/$I$11,$I$12)</f>
@@ -36777,7 +36777,7 @@
       </c>
       <c r="L32">
         <f ca="1"/>
-        <v>8.9328280103457972E-4</v>
+        <v>1.9932688849199683E-3</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -36803,7 +36803,7 @@
       </c>
       <c r="H33">
         <f ca="1"/>
-        <v>1.0984302184848016E-4</v>
+        <v>2.3177099175353145E-3</v>
       </c>
       <c r="I33">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H33/$I$11,$I$12)</f>
@@ -36815,7 +36815,7 @@
       </c>
       <c r="L33">
         <f ca="1"/>
-        <v>1.5350088452840212E-3</v>
+        <v>2.3093041237605902E-3</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -36841,7 +36841,7 @@
       </c>
       <c r="H34">
         <f ca="1"/>
-        <v>1.9435515321984277E-4</v>
+        <v>2.6830161107808219E-3</v>
       </c>
       <c r="I34">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H34/$I$11,$I$12)</f>
@@ -36853,7 +36853,7 @@
       </c>
       <c r="L34">
         <f ca="1"/>
-        <v>2.5862345162289157E-3</v>
+        <v>2.6729281750103775E-3</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -36879,7 +36879,7 @@
       </c>
       <c r="H35">
         <f ca="1"/>
-        <v>3.3895163990797268E-4</v>
+        <v>3.1038436527661786E-3</v>
       </c>
       <c r="I35">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H35/$I$11,$I$12)</f>
@@ -36891,7 +36891,7 @@
       </c>
       <c r="L35">
         <f ca="1"/>
-        <v>4.2581684456865325E-3</v>
+        <v>3.0916258228110044E-3</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -36917,7 +36917,7 @@
       </c>
       <c r="H36">
         <f ca="1"/>
-        <v>5.8153685824462848E-4</v>
+        <v>3.5888893653975781E-3</v>
       </c>
       <c r="I36">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H36/$I$11,$I$12)</f>
@@ -36929,7 +36929,7 @@
       </c>
       <c r="L36">
         <f ca="1"/>
-        <v>6.8232414591456268E-3</v>
+        <v>3.5740108650059201E-3</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -36955,7 +36955,7 @@
       </c>
       <c r="H37">
         <f ca="1"/>
-        <v>9.7940311912963628E-4</v>
+        <v>4.1481728341177266E-3</v>
       </c>
       <c r="I37">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H37/$I$11,$I$12)</f>
@@ -36967,7 +36967,7 @@
       </c>
       <c r="L37">
         <f ca="1"/>
-        <v>1.0586484365381173E-2</v>
+        <v>4.1300023861723933E-3</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -36993,7 +36993,7 @@
       </c>
       <c r="H38">
         <f ca="1"/>
-        <v>1.6150879201557852E-3</v>
+        <v>4.7932424153823462E-3</v>
       </c>
       <c r="I38">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H38/$I$11,$I$12)</f>
@@ -37005,7 +37005,7 @@
       </c>
       <c r="L38">
         <f ca="1"/>
-        <v>1.5804255048325597E-2</v>
+        <v>4.7710276250483279E-3</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -37031,11 +37031,11 @@
       </c>
       <c r="H39">
         <f ca="1"/>
-        <v>2.6005041551506736E-3</v>
+        <v>5.5374125642259926E-3</v>
       </c>
       <c r="I39">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H39/$I$11,$I$12)</f>
-        <v>0</v>
+        <v>5.4779251745240677E-3</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="5"/>
@@ -37043,7 +37043,7 @@
       </c>
       <c r="L39">
         <f ca="1"/>
-        <v>2.253352170659292E-2</v>
+        <v>5.510255559520269E-3</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -37069,11 +37069,11 @@
       </c>
       <c r="H40">
         <f ca="1"/>
-        <v>4.0761650838000698E-3</v>
+        <v>6.3960373325621638E-3</v>
       </c>
       <c r="I40">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H40/$I$11,$I$12)</f>
-        <v>0</v>
+        <v>8.3045997705620128E-3</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="5"/>
@@ -37081,7 +37081,7 @@
       </c>
       <c r="L40">
         <f ca="1"/>
-        <v>3.0448373639822626E-2</v>
+        <v>6.362865953616504E-3</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -37107,11 +37107,11 @@
       </c>
       <c r="H41">
         <f ca="1"/>
-        <v>6.2026297127792847E-3</v>
+        <v>7.3868256252047808E-3</v>
       </c>
       <c r="I41">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H41/$I$11,$I$12)</f>
-        <v>7.7153833181700087E-3</v>
+        <v>1.1146455198052203E-2</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="5"/>
@@ -37119,7 +37119,7 @@
       </c>
       <c r="L41">
         <f ca="1"/>
-        <v>3.8815619160710746E-2</v>
+        <v>7.34635932787428E-3</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -37145,11 +37145,11 @@
       </c>
       <c r="H42">
         <f ca="1"/>
-        <v>9.1468434332972609E-3</v>
+        <v>8.5302046503338037E-3</v>
       </c>
       <c r="I42">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H42/$I$11,$I$12)</f>
-        <v>1.5880474111408072E-2</v>
+        <v>1.4246999345051085E-2</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="5"/>
@@ -37157,7 +37157,7 @@
       </c>
       <c r="L42">
         <f ca="1"/>
-        <v>4.7102960832646805E-2</v>
+        <v>8.480914141391193E-3</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -37183,11 +37183,11 @@
       </c>
       <c r="H43">
         <f ca="1"/>
-        <v>1.3081482809268095E-2</v>
+        <v>9.8497389814250422E-3</v>
       </c>
       <c r="I43">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H43/$I$11,$I$12)</f>
-        <v>2.6045380964522066E-2</v>
+        <v>1.7722382235975477E-2</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="5"/>
@@ -37195,7 +37195,7 @@
       </c>
       <c r="L43">
         <f ca="1"/>
-        <v>5.6776248596095896E-2</v>
+        <v>9.7897984273961416E-3</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -37221,11 +37221,11 @@
       </c>
       <c r="H44">
         <f ca="1"/>
-        <v>1.8231558977552256E-2</v>
+        <v>1.1372613778318805E-2</v>
       </c>
       <c r="I44">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H44/$I$11,$I$12)</f>
-        <v>3.9114026558854376E-2</v>
+        <v>2.1665949381086663E-2</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="5"/>
@@ -37233,7 +37233,7 @@
       </c>
       <c r="L44">
         <f ca="1"/>
-        <v>7.2758612676078874E-2</v>
+        <v>1.1299844223382432E-2</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -37259,11 +37259,11 @@
       </c>
       <c r="H45">
         <f ca="1"/>
-        <v>2.49262747253843E-2</v>
+        <v>1.4059145645568627E-2</v>
       </c>
       <c r="I45">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H45/$I$11,$I$12)</f>
-        <v>5.5991233325401887E-2</v>
+        <v>2.8537579460371748E-2</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="5"/>
@@ -37271,7 +37271,7 @@
       </c>
       <c r="L45">
         <f ca="1"/>
-        <v>9.0652077882168253E-2</v>
+        <v>0.19883271973071351</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -37297,11 +37297,11 @@
       </c>
       <c r="H46">
         <f ca="1"/>
-        <v>3.3002913169334389E-2</v>
+        <v>1.984442732072202E-2</v>
       </c>
       <c r="I46">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H46/$I$11,$I$12)</f>
-        <v>7.6295686960373518E-2</v>
+        <v>4.3186915282098073E-2</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="5"/>
@@ -37309,7 +37309,7 @@
       </c>
       <c r="L46">
         <f ca="1"/>
-        <v>4.4283055774956698E-3</v>
+        <v>2.3252351203893351E-2</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -37335,11 +37335,11 @@
       </c>
       <c r="H47" s="1">
         <f ca="1"/>
-        <v>4.2074444683141018E-2</v>
+        <v>2.7911490859772507E-2</v>
       </c>
       <c r="I47">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H47/$I$11,$I$12)</f>
-        <v>9.9072278257604576E-2</v>
+        <v>6.3500414020619775E-2</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="5"/>
@@ -37347,7 +37347,7 @@
       </c>
       <c r="L47">
         <f ca="1"/>
-        <v>0.18569369723896881</v>
+        <v>0.38659959058048249</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -37373,11 +37373,11 @@
       </c>
       <c r="H48">
         <f ca="1"/>
-        <v>5.3953523183419616E-2</v>
+        <v>4.189381001354963E-2</v>
       </c>
       <c r="I48">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H48/$I$11,$I$12)</f>
-        <v>0.12887787715958232</v>
+        <v>9.8618914636510291E-2</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="5"/>
@@ -37385,7 +37385,7 @@
       </c>
       <c r="L48">
         <f ca="1"/>
-        <v>4.4283055774956698E-3</v>
+        <v>2.3252351203893351E-2</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -37411,11 +37411,11 @@
       </c>
       <c r="H49">
         <f ca="1"/>
-        <v>6.6352286656772258E-2</v>
+        <v>5.7219079391102545E-2</v>
       </c>
       <c r="I49">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H49/$I$11,$I$12)</f>
-        <v>0.15997581668375513</v>
+        <v>0.13706920686647125</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="5"/>
@@ -37423,7 +37423,7 @@
       </c>
       <c r="L49">
         <f ca="1"/>
-        <v>9.0652077882168225E-2</v>
+        <v>0.19883271973071348</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -37449,11 +37449,11 @@
       </c>
       <c r="H50">
         <f ca="1"/>
-        <v>8.0474624361739786E-2</v>
+        <v>7.5583341529809611E-2</v>
       </c>
       <c r="I50">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H50/$I$11,$I$12)</f>
-        <v>0.19538942681722093</v>
+        <v>0.18312451495697329</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="5"/>
@@ -37461,7 +37461,7 @@
       </c>
       <c r="L50">
         <f ca="1"/>
-        <v>7.2758612676078901E-2</v>
+        <v>1.1299844223382434E-2</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -37487,11 +37487,11 @@
       </c>
       <c r="H51">
         <f ca="1"/>
-        <v>9.5972222499833115E-2</v>
+        <v>9.4166054515652686E-2</v>
       </c>
       <c r="I51">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H51/$I$11,$I$12)</f>
-        <v>0.23424675530452588</v>
+        <v>0.22971831175173302</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="5"/>
@@ -37499,7 +37499,7 @@
       </c>
       <c r="L51">
         <f ca="1"/>
-        <v>5.6776248596095868E-2</v>
+        <v>9.7897984273960861E-3</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -37525,11 +37525,11 @@
       </c>
       <c r="H52">
         <f ca="1"/>
-        <v>0.11255697917103966</v>
+        <v>0.11293802478033897</v>
       </c>
       <c r="I52">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H52/$I$11,$I$12)</f>
-        <v>0.27582661872780212</v>
+        <v>0.27678191482665454</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="5"/>
@@ -37537,7 +37537,7 @@
       </c>
       <c r="L52">
         <f ca="1"/>
-        <v>4.7102960832646798E-2</v>
+        <v>8.480914141391167E-3</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -37563,11 +37563,11 @@
       </c>
       <c r="H53">
         <f ca="1"/>
-        <v>0.13004235835055675</v>
+        <v>0.13187394795208113</v>
       </c>
       <c r="I53">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H53/$I$11,$I$12)</f>
-        <v>0.31966217867032004</v>
+        <v>0.3242538466573387</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="5"/>
@@ -37575,7 +37575,7 @@
       </c>
       <c r="L53">
         <f ca="1"/>
-        <v>3.8815619160710739E-2</v>
+        <v>7.3463593278743954E-3</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -37601,11 +37601,11 @@
       </c>
       <c r="H54">
         <f ca="1"/>
-        <v>0.14826221368571882</v>
+        <v>0.15095189007164816</v>
       </c>
       <c r="I54">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H54/$I$11,$I$12)</f>
-        <v>0.36533747179058945</v>
+        <v>0.37208011066571078</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="5"/>
@@ -37613,7 +37613,7 @@
       </c>
       <c r="L54">
         <f ca="1"/>
-        <v>3.0448373639822609E-2</v>
+        <v>6.3628659536165231E-3</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -37639,11 +37639,11 @@
       </c>
       <c r="H55">
         <f ca="1"/>
-        <v>0.16705146223408224</v>
+        <v>0.17015283771995418</v>
       </c>
       <c r="I55">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H55/$I$11,$I$12)</f>
-        <v>0.41243904072985593</v>
+        <v>0.42021359692529603</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="5"/>
@@ -37651,7 +37651,7 @@
       </c>
       <c r="L55">
         <f ca="1"/>
-        <v>2.2533521706592934E-2</v>
+        <v>5.5102555595202187E-3</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -37677,11 +37677,11 @@
       </c>
       <c r="H56">
         <f ca="1"/>
-        <v>0.18625773488342967</v>
+        <v>0.18946030788344664</v>
       </c>
       <c r="I56">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H56/$I$11,$I$12)</f>
-        <v>0.46058519482014559</v>
+        <v>0.46861331978290161</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="5"/>
@@ -37689,7 +37689,7 @@
       </c>
       <c r="L56">
         <f ca="1"/>
-        <v>1.5804255048325604E-2</v>
+        <v>4.7710276250483487E-3</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -37715,11 +37715,11 @@
       </c>
       <c r="H57">
         <f ca="1"/>
-        <v>0.20575400378061798</v>
+        <v>0.2088600095978399</v>
       </c>
       <c r="I57">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H57/$I$11,$I$12)</f>
-        <v>0.50945769711150124</v>
+        <v>0.51724366843953806</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="5"/>
@@ -37727,7 +37727,7 @@
       </c>
       <c r="L57">
         <f ca="1"/>
-        <v>1.0586484365381179E-2</v>
+        <v>4.1300023861724081E-3</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -37753,11 +37753,11 @@
       </c>
       <c r="H58">
         <f ca="1"/>
-        <v>0.2254431861511639</v>
+        <v>0.2283395504637242</v>
       </c>
       <c r="I58">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H58/$I$11,$I$12)</f>
-        <v>0.5588133253625579</v>
+        <v>0.56607372093638508</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="5"/>
@@ -37765,7 +37765,7 @@
       </c>
       <c r="L58">
         <f ca="1"/>
-        <v>6.8232414591456337E-3</v>
+        <v>3.574010865005927E-3</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -37791,11 +37791,11 @@
       </c>
       <c r="H59">
         <f ca="1"/>
-        <v>0.24525600798699121</v>
+        <v>0.24788818204051483</v>
       </c>
       <c r="I59">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H59/$I$11,$I$12)</f>
-        <v>0.60847853053034773</v>
+        <v>0.61507663280404368</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="5"/>
@@ -37803,7 +37803,7 @@
       </c>
       <c r="L59">
         <f ca="1"/>
-        <v>4.258168445686536E-3</v>
+        <v>3.0916258228110248E-3</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -37829,11 +37829,11 @@
       </c>
       <c r="H60">
         <f ca="1"/>
-        <v>0.26514563352441745</v>
+        <v>0.26749657891654388</v>
       </c>
       <c r="I60">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H60/$I$11,$I$12)</f>
-        <v>0.65833598402662274</v>
+        <v>0.66422909867336799</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="5"/>
@@ -37841,7 +37841,7 @@
       </c>
       <c r="L60">
         <f ca="1"/>
-        <v>2.586234516228917E-3</v>
+        <v>2.6729281750104156E-3</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -37867,11 +37867,11 @@
       </c>
       <c r="H61">
         <f ca="1"/>
-        <v>0.28508172762846884</v>
+        <v>0.28715664693881615</v>
       </c>
       <c r="I61">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H61/$I$11,$I$12)</f>
-        <v>0.70830970079326527</v>
+        <v>0.71351088084614667</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="5"/>
@@ -37879,7 +37879,7 @@
       </c>
       <c r="L61">
         <f ca="1"/>
-        <v>1.5350088452840214E-3</v>
+        <v>2.3093041237605958E-3</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -37905,11 +37905,11 @@
       </c>
       <c r="H62">
         <f ca="1"/>
-        <v>0.30504531328846973</v>
+        <v>0.30686135667993053</v>
       </c>
       <c r="I62">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H62/$I$11,$I$12)</f>
-        <v>0.75835215359827601</v>
+        <v>0.76290439766476759</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="5"/>
@@ -37917,7 +37917,7 @@
       </c>
       <c r="L62">
         <f ca="1"/>
-        <v>8.9328280103458016E-4</v>
+        <v>1.9932688849199575E-3</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -37943,11 +37943,11 @@
       </c>
       <c r="H63">
         <f ca="1"/>
-        <v>0.32502485347486276</v>
+        <v>0.32660459873390923</v>
       </c>
       <c r="I63">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H63/$I$11,$I$12)</f>
-        <v>0.80843445505735145</v>
+        <v>0.81239436455707825</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="5"/>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="L63">
         <f ca="1"/>
-        <v>5.1105319780145905E-4</v>
+        <v>1.7183134243439304E-3</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -37981,11 +37981,11 @@
       </c>
       <c r="H64">
         <f ca="1"/>
-        <v>0.34501349981843649</v>
+        <v>0.34638105787760159</v>
       </c>
       <c r="I64">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H64/$I$11,$I$12)</f>
-        <v>0.85853946351858268</v>
+        <v>0.86196748111950883</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="5"/>
@@ -37993,7 +37993,7 @@
       </c>
       <c r="L64">
         <f ca="1"/>
-        <v>2.880645668021627E-4</v>
+        <v>1.4787710841472129E-3</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -38019,11 +38019,11 @@
       </c>
       <c r="H65">
         <f ca="1"/>
-        <v>0.3650072685059268</v>
+        <v>0.36618610351892533</v>
       </c>
       <c r="I65">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H65/$I$11,$I$12)</f>
-        <v>0.90865721246812614</v>
+        <v>0.911612158233715</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="5"/>
@@ -38031,7 +38031,7 @@
       </c>
       <c r="L65">
         <f ca="1"/>
-        <v>1.6026073477897178E-4</v>
+        <v>1.2697013822468523E-3</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -38057,11 +38057,11 @@
       </c>
       <c r="H66">
         <f ca="1"/>
-        <v>0.38500388183338652</v>
+        <v>0.38601569418528181</v>
       </c>
       <c r="I66">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H66/$I$11,$I$12)</f>
-        <v>0.95878200801483449</v>
+        <v>0.96131827986133767</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="5"/>
@@ -38069,7 +38069,7 @@
       </c>
       <c r="L66">
         <f ca="1"/>
-        <v>8.8117594290314981E-5</v>
+        <v>1.0867886162240503E-3</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -38095,11 +38095,11 @@
       </c>
       <c r="H67">
         <f ca="1"/>
-        <v>0.40500205678662082</v>
+        <v>0.40586629409173886</v>
       </c>
       <c r="I67">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H67/$I$11,$I$12)</f>
-        <v>1.0089106465631856</v>
+        <v>1.0110769947741602</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="5"/>
@@ -38107,7 +38107,7 @@
       </c>
       <c r="L67">
         <f ca="1"/>
-        <v>4.7917174266164767E-5</v>
+        <v>9.2625320229683351E-4</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -38133,11 +38133,11 @@
       </c>
       <c r="H68">
         <f ca="1"/>
-        <v>0.42500107974621143</v>
+        <v>0.42573480007483233</v>
       </c>
       <c r="I68">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H68/$I$11,$I$12)</f>
-        <v>1.0590413494484756</v>
+        <v>1.0608805340321241</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="5"/>
@@ -38145,7 +38145,7 @@
       </c>
       <c r="L68">
         <f ca="1"/>
-        <v>2.5742124333696068E-5</v>
+        <v>7.8477393800617805E-4</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -38171,11 +38171,11 @@
       </c>
       <c r="H69">
         <f ca="1"/>
-        <v>0.44500055771232855</v>
+        <v>0.4456184773890583</v>
       </c>
       <c r="I69">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H69/$I$11,$I$12)</f>
-        <v>1.1091731398645501</v>
+        <v>1.1107220505132362</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="5"/>
@@ -38183,7 +38183,7 @@
       </c>
       <c r="L69">
         <f ca="1"/>
-        <v>1.3566000574061508E-5</v>
+        <v>6.5941959825672981E-4</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -38209,11 +38209,11 @@
       </c>
       <c r="H70">
         <f ca="1"/>
-        <v>0.46500027521031728</v>
+        <v>0.46551490304361076</v>
       </c>
       <c r="I70">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H70/$I$11,$I$12)</f>
-        <v>1.1593054845658533</v>
+        <v>1.1605954772281031</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="5"/>
@@ -38221,7 +38221,7 @@
       </c>
       <c r="L70">
         <f ca="1"/>
-        <v>6.8046775350601493E-6</v>
+        <v>-3.9978344781377391E-3</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -38247,11 +38247,11 @@
       </c>
       <c r="H71">
         <f ca="1"/>
-        <v>0.48500011275370775</v>
+        <v>0.4853341418259115</v>
       </c>
       <c r="I71">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H71/$I$11,$I$12)</f>
-        <v>1.2094380897776649</v>
+        <v>1.2102753836447997</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="5"/>
@@ -38259,7 +38259,7 @@
       </c>
       <c r="L71">
         <f ca="1"/>
-        <v>2.8190054797883349E-6</v>
+        <v>-7.9213611240738814E-3</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -38289,7 +38289,7 @@
       </c>
       <c r="I72">
         <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H72/$I$11,$I$12)</f>
-        <v>1.2595707839995969</v>
+        <v>1.2595707839995962</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="5"/>
@@ -38297,7 +38297,7 @@
       </c>
       <c r="L72">
         <f ca="1"/>
-        <v>6.4107519555457348E-6</v>
+        <v>1.7278102615932333E-2</v>
       </c>
     </row>
   </sheetData>
